--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -6418,10 +6418,10 @@
         <v>3670</v>
       </c>
       <c r="D3">
-        <v>6617</v>
+        <v>6618</v>
       </c>
       <c r="E3">
-        <v>11756</v>
+        <v>11757</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -6415,13 +6415,13 @@
         <v>1900</v>
       </c>
       <c r="C3">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D3">
-        <v>6618</v>
+        <v>6619</v>
       </c>
       <c r="E3">
-        <v>11757</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1932</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1948</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="2009">
   <si>
     <t>№</t>
   </si>
@@ -628,6 +628,9 @@
     <t>153</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
     <t>154</t>
   </si>
   <si>
@@ -676,9 +679,6 @@
     <t>169</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -5996,6 +5996,54 @@
   </si>
   <si>
     <t>1923</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1939</t>
   </si>
 </sst>
 </file>
@@ -6361,7 +6409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1932"/>
+  <dimension ref="A1:E1948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6412,16 +6460,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1900</v>
+        <v>1514</v>
       </c>
       <c r="C3">
-        <v>3671</v>
+        <v>3599</v>
       </c>
       <c r="D3">
-        <v>6619</v>
+        <v>5546</v>
       </c>
       <c r="E3">
-        <v>11759</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6429,13 +6477,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>6754</v>
+        <v>7791</v>
       </c>
       <c r="C4">
-        <v>4403</v>
+        <v>4507</v>
       </c>
       <c r="D4">
-        <v>2874</v>
+        <v>3311</v>
       </c>
       <c r="E4">
         <v>1733</v>
@@ -6446,13 +6494,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1250</v>
+        <v>1352</v>
       </c>
       <c r="C5">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D5">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="E5">
         <v>363</v>
@@ -6463,13 +6511,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C6">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>88</v>
@@ -6480,13 +6528,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -6497,13 +6545,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>109</v>
@@ -6514,13 +6562,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -7710,6 +7758,9 @@
       <c r="A123" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="B123" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C123" s="3" t="s">
         <v>30</v>
       </c>
@@ -7821,6 +7872,9 @@
       <c r="A135" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="B135" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D135" s="3" t="s">
         <v>19</v>
       </c>
@@ -7887,19 +7941,37 @@
       <c r="A141" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="B141" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C141" s="3" t="s">
         <v>177</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="B142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="B143" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
@@ -7950,6 +8022,9 @@
       <c r="C150" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="D150" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
@@ -7993,6 +8068,9 @@
       <c r="A155" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="D155" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
@@ -8060,6 +8138,9 @@
       <c r="A160" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="B160" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
@@ -8076,35 +8157,47 @@
       <c r="A162" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="B162" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>51</v>
@@ -8112,22 +8205,22 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>19</v>
@@ -8144,7 +8237,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>23</v>
@@ -8152,7 +8245,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>24</v>
@@ -8160,17 +8256,17 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>19</v>
@@ -8178,7 +8274,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>24</v>
@@ -8190,7 +8286,7 @@
         <v>19</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -8427,6 +8523,12 @@
       <c r="A213" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="B213" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
@@ -8437,6 +8539,9 @@
       <c r="A215" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="B215" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
@@ -8536,6 +8641,9 @@
       <c r="A233" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="B233" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
@@ -8755,6 +8863,9 @@
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="B269" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
@@ -8806,6 +8917,9 @@
       <c r="A275" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="D275" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
@@ -8966,6 +9080,9 @@
       <c r="B295" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D295" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
@@ -9184,6 +9301,9 @@
       <c r="A326" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="C326" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
@@ -9283,6 +9403,9 @@
       <c r="A338" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="B338" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C338" s="4" t="s">
         <v>51</v>
       </c>
@@ -9310,6 +9433,9 @@
       <c r="A341" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="B341" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
@@ -9389,24 +9515,33 @@
       <c r="A352" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B352" s="4" t="s">
-        <v>51</v>
+      <c r="B352" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="B353" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>402</v>
       </c>
+      <c r="B354" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="B355" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
@@ -9442,6 +9577,9 @@
       <c r="C359" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D359" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
@@ -9475,6 +9613,9 @@
       <c r="A365" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="B365" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
@@ -9535,6 +9676,9 @@
       <c r="A374" s="2" t="s">
         <v>423</v>
       </c>
+      <c r="B374" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
@@ -9551,6 +9695,9 @@
       <c r="C376" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="D376" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
@@ -9582,11 +9729,20 @@
       <c r="A381" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="B381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>431</v>
       </c>
+      <c r="B382" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
@@ -9732,6 +9888,12 @@
       <c r="A405" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="B405" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
@@ -9790,6 +9952,9 @@
       <c r="A416" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="B416" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
@@ -10160,6 +10325,9 @@
       <c r="A478" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="B478" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
@@ -10170,8 +10338,8 @@
       <c r="A480" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B480" s="4" t="s">
-        <v>51</v>
+      <c r="B480" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10539,8 +10707,8 @@
       <c r="A534" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B534" s="4" t="s">
-        <v>76</v>
+      <c r="B534" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C534" s="3" t="s">
         <v>19</v>
@@ -10626,7 +10794,7 @@
         <v>596</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>219</v>
+        <v>470</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -11315,7 +11483,7 @@
         <v>703</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -11911,6 +12079,9 @@
       <c r="A737" s="2" t="s">
         <v>790</v>
       </c>
+      <c r="B737" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2" t="s">
@@ -12200,8 +12371,8 @@
       <c r="A778" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B778" s="4" t="s">
-        <v>219</v>
+      <c r="B778" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -12347,6 +12518,9 @@
       <c r="A796" s="2" t="s">
         <v>850</v>
       </c>
+      <c r="B796" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
@@ -12411,6 +12585,9 @@
       <c r="A804" s="2" t="s">
         <v>858</v>
       </c>
+      <c r="B804" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="2" t="s">
@@ -12872,6 +13049,9 @@
       <c r="B868" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D868" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="869" spans="1:5">
       <c r="A869" s="2" t="s">
@@ -12942,7 +13122,7 @@
         <v>82</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>22</v>
@@ -13516,6 +13696,9 @@
       <c r="A953" s="2" t="s">
         <v>1011</v>
       </c>
+      <c r="B953" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="954" spans="1:5">
       <c r="A954" s="2" t="s">
@@ -13650,6 +13833,9 @@
       <c r="A969" s="2" t="s">
         <v>1027</v>
       </c>
+      <c r="B969" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="2" t="s">
@@ -14040,7 +14226,7 @@
         <v>1097</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -14670,7 +14856,7 @@
         <v>1197</v>
       </c>
       <c r="B1138" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D1138" s="4" t="s">
         <v>51</v>
@@ -14962,6 +15148,9 @@
       <c r="A1190" s="2" t="s">
         <v>1249</v>
       </c>
+      <c r="B1190" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C1190" s="3" t="s">
         <v>19</v>
       </c>
@@ -15924,27 +16113,27 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1361" spans="1:3">
+    <row r="1361" spans="1:4">
       <c r="A1361" s="2" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1362" spans="1:3">
+    <row r="1362" spans="1:4">
       <c r="A1362" s="2" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1363" spans="1:3">
+    <row r="1363" spans="1:4">
       <c r="A1363" s="2" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1364" spans="1:3">
+    <row r="1364" spans="1:4">
       <c r="A1364" s="2" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1365" spans="1:3">
+    <row r="1365" spans="1:4">
       <c r="A1365" s="2" t="s">
         <v>1424</v>
       </c>
@@ -15952,22 +16141,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1366" spans="1:3">
+    <row r="1366" spans="1:4">
       <c r="A1366" s="2" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1367" spans="1:3">
+    <row r="1367" spans="1:4">
       <c r="A1367" s="2" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="1368" spans="1:3">
+    <row r="1368" spans="1:4">
       <c r="A1368" s="2" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="1369" spans="1:3">
+    <row r="1369" spans="1:4">
       <c r="A1369" s="2" t="s">
         <v>1428</v>
       </c>
@@ -15977,38 +16166,41 @@
       <c r="C1369" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="1370" spans="1:3">
+      <c r="D1369" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4">
       <c r="A1370" s="2" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1371" spans="1:3">
+    <row r="1371" spans="1:4">
       <c r="A1371" s="2" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1372" spans="1:3">
+    <row r="1372" spans="1:4">
       <c r="A1372" s="2" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1373" spans="1:3">
+    <row r="1373" spans="1:4">
       <c r="A1373" s="2" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1374" spans="1:3">
+    <row r="1374" spans="1:4">
       <c r="A1374" s="2" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1375" spans="1:3">
+    <row r="1375" spans="1:4">
       <c r="A1375" s="2" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="1376" spans="1:3">
+    <row r="1376" spans="1:4">
       <c r="A1376" s="2" t="s">
         <v>1435</v>
       </c>
@@ -16082,6 +16274,9 @@
       <c r="A1390" s="2" t="s">
         <v>1449</v>
       </c>
+      <c r="B1390" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C1390" s="3" t="s">
         <v>30</v>
       </c>
@@ -16452,82 +16647,88 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1457" spans="1:1">
+    <row r="1457" spans="1:2">
       <c r="A1457" s="2" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="1458" spans="1:1">
+    <row r="1458" spans="1:2">
       <c r="A1458" s="2" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="1459" spans="1:1">
+    <row r="1459" spans="1:2">
       <c r="A1459" s="2" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1460" spans="1:1">
+    <row r="1460" spans="1:2">
       <c r="A1460" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1461" spans="1:1">
+    <row r="1461" spans="1:2">
       <c r="A1461" s="2" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="1462" spans="1:1">
+    <row r="1462" spans="1:2">
       <c r="A1462" s="2" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1463" spans="1:1">
+    <row r="1463" spans="1:2">
       <c r="A1463" s="2" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="1464" spans="1:1">
+    <row r="1464" spans="1:2">
       <c r="A1464" s="2" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="1465" spans="1:1">
+    <row r="1465" spans="1:2">
       <c r="A1465" s="2" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="1466" spans="1:1">
+      <c r="B1465" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2">
       <c r="A1466" s="2" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1467" spans="1:1">
+      <c r="B1466" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2">
       <c r="A1467" s="2" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="1468" spans="1:1">
+    <row r="1468" spans="1:2">
       <c r="A1468" s="2" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1469" spans="1:1">
+    <row r="1469" spans="1:2">
       <c r="A1469" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="1470" spans="1:1">
+    <row r="1470" spans="1:2">
       <c r="A1470" s="2" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="1471" spans="1:1">
+    <row r="1471" spans="1:2">
       <c r="A1471" s="2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="1472" spans="1:1">
+    <row r="1472" spans="1:2">
       <c r="A1472" s="2" t="s">
         <v>1532</v>
       </c>
@@ -16536,6 +16737,9 @@
       <c r="A1473" s="2" t="s">
         <v>1533</v>
       </c>
+      <c r="B1473" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="1474" spans="1:5">
       <c r="A1474" s="2" t="s">
@@ -18078,7 +18282,7 @@
         <v>1813</v>
       </c>
       <c r="B1753" s="4" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -18222,7 +18426,7 @@
         <v>1840</v>
       </c>
       <c r="B1780" s="4" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1781" spans="1:5">
@@ -18244,8 +18448,8 @@
       <c r="A1784" s="2" t="s">
         <v>1844</v>
       </c>
-      <c r="B1784" s="4" t="s">
-        <v>51</v>
+      <c r="B1784" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="1785" spans="1:5">
@@ -18534,11 +18738,17 @@
       <c r="A1833" s="2" t="s">
         <v>1893</v>
       </c>
+      <c r="B1833" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="1834" spans="1:2">
       <c r="A1834" s="2" t="s">
         <v>1894</v>
       </c>
+      <c r="B1834" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835" s="2" t="s">
@@ -18766,22 +18976,22 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="1873" spans="1:3">
+    <row r="1873" spans="1:4">
       <c r="A1873" s="2" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="1874" spans="1:3">
+    <row r="1874" spans="1:4">
       <c r="A1874" s="2" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="1875" spans="1:3">
+    <row r="1875" spans="1:4">
       <c r="A1875" s="2" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="1876" spans="1:3">
+    <row r="1876" spans="1:4">
       <c r="A1876" s="2" t="s">
         <v>1936</v>
       </c>
@@ -18789,12 +18999,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1877" spans="1:3">
+    <row r="1877" spans="1:4">
       <c r="A1877" s="2" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="1878" spans="1:3">
+    <row r="1878" spans="1:4">
       <c r="A1878" s="2" t="s">
         <v>1938</v>
       </c>
@@ -18802,20 +19012,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1879" spans="1:3">
+    <row r="1879" spans="1:4">
       <c r="A1879" s="2" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="1880" spans="1:3">
+    <row r="1880" spans="1:4">
       <c r="A1880" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="B1880" s="4" t="s">
+      <c r="B1880" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1880" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1881" spans="1:3">
+    <row r="1881" spans="1:4">
       <c r="A1881" s="2" t="s">
         <v>1941</v>
       </c>
@@ -18826,17 +19039,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1882" spans="1:3">
+    <row r="1882" spans="1:4">
       <c r="A1882" s="2" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="1883" spans="1:3">
+    <row r="1883" spans="1:4">
       <c r="A1883" s="2" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="1884" spans="1:3">
+    <row r="1884" spans="1:4">
       <c r="A1884" s="2" t="s">
         <v>1944</v>
       </c>
@@ -18844,22 +19057,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1885" spans="1:3">
+    <row r="1885" spans="1:4">
       <c r="A1885" s="2" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="1886" spans="1:3">
+      <c r="B1885" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4">
       <c r="A1886" s="2" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="1887" spans="1:3">
+    <row r="1887" spans="1:4">
       <c r="A1887" s="2" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="1888" spans="1:3">
+    <row r="1888" spans="1:4">
       <c r="A1888" s="2" t="s">
         <v>1948</v>
       </c>
@@ -18900,7 +19116,7 @@
         <v>1954</v>
       </c>
       <c r="B1894" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -19063,7 +19279,7 @@
         <v>1980</v>
       </c>
       <c r="B1920" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -19138,8 +19354,103 @@
         <v>19</v>
       </c>
     </row>
+    <row r="1933" spans="1:2">
+      <c r="A1933" s="2" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2">
+      <c r="A1934" s="2" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="A1935" s="2" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2">
+      <c r="A1936" s="2" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4">
+      <c r="A1937" s="2" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4">
+      <c r="A1938" s="2" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4">
+      <c r="A1939" s="2" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4">
+      <c r="A1940" s="2" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4">
+      <c r="A1941" s="2" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4">
+      <c r="A1942" s="2" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4">
+      <c r="A1943" s="2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4">
+      <c r="A1944" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1944" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1944" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4">
+      <c r="A1945" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1945" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1945" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4">
+      <c r="A1946" s="2" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4">
+      <c r="A1947" s="2" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4">
+      <c r="A1948" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1948" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1932"/>
+  <autoFilter ref="A1:E1948"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -21068,6 +21379,22 @@
     <hyperlink ref="A1930" r:id="rId1925"/>
     <hyperlink ref="A1931" r:id="rId1926"/>
     <hyperlink ref="A1932" r:id="rId1927"/>
+    <hyperlink ref="A1933" r:id="rId1928"/>
+    <hyperlink ref="A1934" r:id="rId1929"/>
+    <hyperlink ref="A1935" r:id="rId1930"/>
+    <hyperlink ref="A1936" r:id="rId1931"/>
+    <hyperlink ref="A1937" r:id="rId1932"/>
+    <hyperlink ref="A1938" r:id="rId1933"/>
+    <hyperlink ref="A1939" r:id="rId1934"/>
+    <hyperlink ref="A1940" r:id="rId1935"/>
+    <hyperlink ref="A1941" r:id="rId1936"/>
+    <hyperlink ref="A1942" r:id="rId1937"/>
+    <hyperlink ref="A1943" r:id="rId1938"/>
+    <hyperlink ref="A1944" r:id="rId1939"/>
+    <hyperlink ref="A1945" r:id="rId1940"/>
+    <hyperlink ref="A1946" r:id="rId1941"/>
+    <hyperlink ref="A1947" r:id="rId1942"/>
+    <hyperlink ref="A1948" r:id="rId1943"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="2009">
   <si>
     <t>№</t>
   </si>
@@ -6460,16 +6460,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="C3">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="D3">
-        <v>5546</v>
+        <v>5551</v>
       </c>
       <c r="E3">
-        <v>11955</v>
+        <v>11963</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6477,7 +6477,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7791</v>
+        <v>7857</v>
       </c>
       <c r="C4">
         <v>4507</v>
@@ -6494,7 +6494,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="C5">
         <v>679</v>
@@ -6511,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -6545,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C8">
         <v>237</v>
@@ -8925,6 +8925,9 @@
       <c r="A276" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="B276" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E276" s="4" t="s">
         <v>51</v>
       </c>
@@ -11989,6 +11992,9 @@
     <row r="721" spans="1:5">
       <c r="A721" s="2" t="s">
         <v>774</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E721" s="3" t="s">
         <v>19</v>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -6460,16 +6460,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="C3">
-        <v>3601</v>
+        <v>3605</v>
       </c>
       <c r="D3">
-        <v>5551</v>
+        <v>5559</v>
       </c>
       <c r="E3">
-        <v>11963</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1948</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1949</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="2011">
   <si>
     <t>№</t>
   </si>
@@ -1825,6 +1825,9 @@
     <t>540</t>
   </si>
   <si>
+    <t>9-</t>
+  </si>
+  <si>
     <t>541</t>
   </si>
   <si>
@@ -6044,6 +6047,9 @@
   </si>
   <si>
     <t>1939</t>
+  </si>
+  <si>
+    <t>1940</t>
   </si>
 </sst>
 </file>
@@ -6409,7 +6415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1948"/>
+  <dimension ref="A1:E1949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6460,16 +6466,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C3">
-        <v>3605</v>
+        <v>3664</v>
       </c>
       <c r="D3">
-        <v>5559</v>
+        <v>5687</v>
       </c>
       <c r="E3">
-        <v>11993</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6477,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7857</v>
+        <v>7945</v>
       </c>
       <c r="C4">
         <v>4507</v>
@@ -6486,7 +6492,7 @@
         <v>3311</v>
       </c>
       <c r="E4">
-        <v>1733</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6494,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1357</v>
+        <v>1390</v>
       </c>
       <c r="C5">
         <v>679</v>
@@ -6503,7 +6509,7 @@
         <v>416</v>
       </c>
       <c r="E5">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6511,7 +6517,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C6">
         <v>201</v>
@@ -6520,7 +6526,7 @@
         <v>155</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6528,7 +6534,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -6545,7 +6551,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C8">
         <v>237</v>
@@ -6554,7 +6560,7 @@
         <v>174</v>
       </c>
       <c r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6562,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -7076,6 +7082,9 @@
       <c r="D49" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="E49" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
@@ -9711,6 +9720,9 @@
       <c r="A378" s="2" t="s">
         <v>427</v>
       </c>
+      <c r="B378" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
@@ -10836,15 +10848,18 @@
       <c r="A549" s="2" t="s">
         <v>601</v>
       </c>
+      <c r="B549" s="4" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>19</v>
@@ -10855,7 +10870,7 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>19</v>
@@ -10866,7 +10881,7 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>18</v>
@@ -10883,12 +10898,12 @@
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>76</v>
@@ -10896,12 +10911,12 @@
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>470</v>
@@ -10909,12 +10924,12 @@
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>22</v>
@@ -10928,22 +10943,22 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>19</v>
@@ -10960,17 +10975,17 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D566" s="4" t="s">
         <v>51</v>
@@ -10978,22 +10993,22 @@
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>500</v>
@@ -11001,67 +11016,67 @@
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>24</v>
@@ -11072,12 +11087,12 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>19</v>
@@ -11094,7 +11109,7 @@
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>30</v>
@@ -11108,12 +11123,12 @@
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>30</v>
@@ -11121,92 +11136,92 @@
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>30</v>
@@ -11223,17 +11238,17 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>30</v>
@@ -11241,32 +11256,32 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>19</v>
@@ -11283,93 +11298,93 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>31</v>
@@ -11377,52 +11392,52 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>19</v>
@@ -11436,22 +11451,22 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>19</v>
@@ -11462,12 +11477,12 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>22</v>
@@ -11478,12 +11493,12 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B650" s="4" t="s">
         <v>203</v>
@@ -11491,7 +11506,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>19</v>
@@ -11502,7 +11517,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>19</v>
@@ -11516,27 +11531,27 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>30</v>
@@ -11544,82 +11559,82 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>24</v>
@@ -11627,32 +11642,32 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>19</v>
@@ -11660,22 +11675,22 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>30</v>
@@ -11689,7 +11704,7 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>19</v>
@@ -11703,7 +11718,7 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>22</v>
@@ -11711,7 +11726,7 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>500</v>
@@ -11719,7 +11734,7 @@
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>19</v>
@@ -11736,12 +11751,12 @@
     </row>
     <row r="688" spans="1:5">
       <c r="A688" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>30</v>
@@ -11758,12 +11773,12 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="691" spans="1:5">
       <c r="A691" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>24</v>
@@ -11774,17 +11789,17 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>19</v>
@@ -11801,7 +11816,7 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>19</v>
@@ -11809,12 +11824,12 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C697" s="4" t="s">
         <v>51</v>
@@ -11822,7 +11837,7 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>19</v>
@@ -11830,12 +11845,12 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="700" spans="1:5">
       <c r="A700" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>19</v>
@@ -11849,7 +11864,7 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>340</v>
@@ -11866,7 +11881,7 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>24</v>
@@ -11874,7 +11889,7 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>19</v>
@@ -11885,17 +11900,17 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>19</v>
@@ -11909,7 +11924,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>115</v>
@@ -11917,42 +11932,42 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C715" s="3" t="s">
         <v>19</v>
@@ -11960,27 +11975,27 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>35</v>
@@ -11991,7 +12006,7 @@
     </row>
     <row r="721" spans="1:5">
       <c r="A721" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>22</v>
@@ -12002,17 +12017,17 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>19</v>
@@ -12023,67 +12038,67 @@
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>24</v>
@@ -12091,47 +12106,47 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B746" s="4" t="s">
         <v>115</v>
@@ -12139,27 +12154,27 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>19</v>
@@ -12167,7 +12182,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B752" s="4" t="s">
         <v>51</v>
@@ -12175,37 +12190,37 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="756" spans="1:5">
       <c r="A756" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B759" s="4" t="s">
         <v>51</v>
@@ -12213,22 +12228,22 @@
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>19</v>
@@ -12245,7 +12260,7 @@
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>30</v>
@@ -12262,7 +12277,7 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>19</v>
@@ -12276,7 +12291,7 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>30</v>
@@ -12290,12 +12305,12 @@
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>86</v>
@@ -12306,7 +12321,7 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>30</v>
@@ -12317,17 +12332,17 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B772" s="4" t="s">
         <v>51</v>
@@ -12338,17 +12353,17 @@
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>19</v>
@@ -12365,17 +12380,17 @@
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>33</v>
@@ -12383,22 +12398,22 @@
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>19</v>
@@ -12415,22 +12430,22 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>22</v>
@@ -12447,7 +12462,7 @@
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>24</v>
@@ -12461,7 +12476,7 @@
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B788" s="4" t="s">
         <v>115</v>
@@ -12469,20 +12484,20 @@
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B791" s="4" t="s">
         <v>51</v>
@@ -12490,7 +12505,7 @@
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C792" s="4" t="s">
         <v>51</v>
@@ -12501,7 +12516,7 @@
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>24</v>
@@ -12509,7 +12524,7 @@
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>24</v>
@@ -12517,12 +12532,12 @@
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B796" s="4" t="s">
         <v>51</v>
@@ -12530,17 +12545,17 @@
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>19</v>
@@ -12548,7 +12563,7 @@
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B800" s="4" t="s">
         <v>80</v>
@@ -12562,7 +12577,7 @@
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>19</v>
@@ -12573,7 +12588,7 @@
     </row>
     <row r="802" spans="1:5">
       <c r="A802" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>19</v>
@@ -12581,7 +12596,7 @@
     </row>
     <row r="803" spans="1:5">
       <c r="A803" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C803" s="3" t="s">
         <v>19</v>
@@ -12589,7 +12604,7 @@
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B804" s="4" t="s">
         <v>51</v>
@@ -12597,17 +12612,17 @@
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>19</v>
@@ -12624,30 +12639,30 @@
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="810" spans="1:5">
       <c r="A810" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D812" s="3" t="s">
         <v>30</v>
@@ -12655,7 +12670,7 @@
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>30</v>
@@ -12666,52 +12681,52 @@
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="819" spans="1:5">
       <c r="A819" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="821" spans="1:5">
       <c r="A821" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="823" spans="1:5">
       <c r="A823" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>19</v>
@@ -12719,17 +12734,17 @@
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>19</v>
@@ -12743,7 +12758,7 @@
     </row>
     <row r="827" spans="1:5">
       <c r="A827" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>19</v>
@@ -12757,7 +12772,7 @@
     </row>
     <row r="828" spans="1:5">
       <c r="A828" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>30</v>
@@ -12774,17 +12789,17 @@
     </row>
     <row r="829" spans="1:5">
       <c r="A829" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="830" spans="1:5">
       <c r="A830" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>24</v>
@@ -12801,37 +12816,37 @@
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>23</v>
@@ -12842,37 +12857,40 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>20</v>
@@ -12883,12 +12901,12 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>24</v>
@@ -12899,7 +12917,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>19</v>
@@ -12913,22 +12931,22 @@
     </row>
     <row r="849" spans="1:5">
       <c r="A849" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="850" spans="1:5">
       <c r="A850" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>19</v>
@@ -12939,7 +12957,7 @@
     </row>
     <row r="853" spans="1:5">
       <c r="A853" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>31</v>
@@ -12953,17 +12971,17 @@
     </row>
     <row r="854" spans="1:5">
       <c r="A854" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="855" spans="1:5">
       <c r="A855" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="856" spans="1:5">
       <c r="A856" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>30</v>
@@ -12974,17 +12992,17 @@
     </row>
     <row r="857" spans="1:5">
       <c r="A857" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="858" spans="1:5">
       <c r="A858" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="859" spans="1:5">
       <c r="A859" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>22</v>
@@ -13001,22 +13019,22 @@
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="861" spans="1:5">
       <c r="A861" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="862" spans="1:5">
       <c r="A862" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="863" spans="1:5">
       <c r="A863" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>19</v>
@@ -13030,27 +13048,27 @@
     </row>
     <row r="864" spans="1:5">
       <c r="A864" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="865" spans="1:5">
       <c r="A865" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="866" spans="1:5">
       <c r="A866" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="867" spans="1:5">
       <c r="A867" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="868" spans="1:5">
       <c r="A868" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>22</v>
@@ -13061,52 +13079,52 @@
     </row>
     <row r="869" spans="1:5">
       <c r="A869" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="870" spans="1:5">
       <c r="A870" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="871" spans="1:5">
       <c r="A871" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="872" spans="1:5">
       <c r="A872" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="873" spans="1:5">
       <c r="A873" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="874" spans="1:5">
       <c r="A874" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="875" spans="1:5">
       <c r="A875" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="876" spans="1:5">
       <c r="A876" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="877" spans="1:5">
       <c r="A877" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="878" spans="1:5">
       <c r="A878" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>19</v>
@@ -13117,12 +13135,12 @@
     </row>
     <row r="879" spans="1:5">
       <c r="A879" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="880" spans="1:5">
       <c r="A880" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>82</v>
@@ -13136,32 +13154,32 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D886" s="3" t="s">
         <v>30</v>
@@ -13169,7 +13187,7 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>19</v>
@@ -13180,52 +13198,52 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="897" spans="1:5">
       <c r="A897" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>19</v>
@@ -13236,22 +13254,22 @@
     </row>
     <row r="898" spans="1:5">
       <c r="A898" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="899" spans="1:5">
       <c r="A899" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="900" spans="1:5">
       <c r="A900" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="901" spans="1:5">
       <c r="A901" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>22</v>
@@ -13268,7 +13286,7 @@
     </row>
     <row r="902" spans="1:5">
       <c r="A902" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>524</v>
@@ -13279,7 +13297,7 @@
     </row>
     <row r="903" spans="1:5">
       <c r="A903" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>24</v>
@@ -13296,7 +13314,7 @@
     </row>
     <row r="904" spans="1:5">
       <c r="A904" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>19</v>
@@ -13310,22 +13328,22 @@
     </row>
     <row r="905" spans="1:5">
       <c r="A905" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="906" spans="1:5">
       <c r="A906" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="907" spans="1:5">
       <c r="A907" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="908" spans="1:5">
       <c r="A908" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>24</v>
@@ -13336,7 +13354,7 @@
     </row>
     <row r="909" spans="1:5">
       <c r="A909" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>19</v>
@@ -13347,17 +13365,17 @@
     </row>
     <row r="910" spans="1:5">
       <c r="A910" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="911" spans="1:5">
       <c r="A911" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="912" spans="1:5">
       <c r="A912" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>20</v>
@@ -13374,25 +13392,25 @@
     </row>
     <row r="913" spans="1:5">
       <c r="A913" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="914" spans="1:5">
       <c r="A914" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="915" spans="1:5">
       <c r="A915" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>62</v>
@@ -13409,7 +13427,7 @@
     </row>
     <row r="917" spans="1:5">
       <c r="A917" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>33</v>
@@ -13423,7 +13441,7 @@
     </row>
     <row r="918" spans="1:5">
       <c r="A918" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>39</v>
@@ -13431,13 +13449,13 @@
     </row>
     <row r="919" spans="1:5">
       <c r="A919" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>19</v>
@@ -13445,12 +13463,12 @@
     </row>
     <row r="920" spans="1:5">
       <c r="A920" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="921" spans="1:5">
       <c r="A921" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B921" s="3" t="s">
         <v>19</v>
@@ -13461,62 +13479,62 @@
     </row>
     <row r="922" spans="1:5">
       <c r="A922" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="923" spans="1:5">
       <c r="A923" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="924" spans="1:5">
       <c r="A924" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="925" spans="1:5">
       <c r="A925" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="926" spans="1:5">
       <c r="A926" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="927" spans="1:5">
       <c r="A927" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="928" spans="1:5">
       <c r="A928" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="929" spans="1:5">
       <c r="A929" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="930" spans="1:5">
       <c r="A930" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="931" spans="1:5">
       <c r="A931" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="932" spans="1:5">
       <c r="A932" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="933" spans="1:5">
       <c r="A933" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>19</v>
@@ -13530,7 +13548,7 @@
     </row>
     <row r="934" spans="1:5">
       <c r="A934" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>24</v>
@@ -13538,7 +13556,7 @@
     </row>
     <row r="935" spans="1:5">
       <c r="A935" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E935" s="3" t="s">
         <v>30</v>
@@ -13546,17 +13564,17 @@
     </row>
     <row r="936" spans="1:5">
       <c r="A936" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="937" spans="1:5">
       <c r="A937" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="938" spans="1:5">
       <c r="A938" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B938" s="3" t="s">
         <v>18</v>
@@ -13570,22 +13588,22 @@
     </row>
     <row r="939" spans="1:5">
       <c r="A939" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="940" spans="1:5">
       <c r="A940" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="941" spans="1:5">
       <c r="A941" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="942" spans="1:5">
       <c r="A942" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>19</v>
@@ -13599,12 +13617,12 @@
     </row>
     <row r="943" spans="1:5">
       <c r="A943" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>30</v>
@@ -13615,17 +13633,17 @@
     </row>
     <row r="945" spans="1:5">
       <c r="A945" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="946" spans="1:5">
       <c r="A946" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="947" spans="1:5">
       <c r="A947" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>22</v>
@@ -13633,12 +13651,12 @@
     </row>
     <row r="948" spans="1:5">
       <c r="A948" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="949" spans="1:5">
       <c r="A949" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>19</v>
@@ -13655,7 +13673,7 @@
     </row>
     <row r="950" spans="1:5">
       <c r="A950" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>30</v>
@@ -13669,7 +13687,7 @@
     </row>
     <row r="951" spans="1:5">
       <c r="A951" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>19</v>
@@ -13686,7 +13704,7 @@
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>19</v>
@@ -13700,7 +13718,7 @@
     </row>
     <row r="953" spans="1:5">
       <c r="A953" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B953" s="3" t="s">
         <v>19</v>
@@ -13708,12 +13726,12 @@
     </row>
     <row r="954" spans="1:5">
       <c r="A954" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="955" spans="1:5">
       <c r="A955" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>19</v>
@@ -13724,7 +13742,7 @@
     </row>
     <row r="956" spans="1:5">
       <c r="A956" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>19</v>
@@ -13735,7 +13753,7 @@
     </row>
     <row r="957" spans="1:5">
       <c r="A957" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>24</v>
@@ -13749,7 +13767,7 @@
     </row>
     <row r="958" spans="1:5">
       <c r="A958" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>22</v>
@@ -13766,7 +13784,7 @@
     </row>
     <row r="959" spans="1:5">
       <c r="A959" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>35</v>
@@ -13780,7 +13798,7 @@
     </row>
     <row r="960" spans="1:5">
       <c r="A960" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D960" s="4" t="s">
         <v>51</v>
@@ -13788,7 +13806,7 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B961" s="4" t="s">
         <v>44</v>
@@ -13802,90 +13820,90 @@
     </row>
     <row r="962" spans="1:4">
       <c r="A962" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="963" spans="1:4">
       <c r="A963" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="964" spans="1:4">
       <c r="A964" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="966" spans="1:4">
       <c r="A966" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="967" spans="1:4">
       <c r="A967" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="968" spans="1:4">
       <c r="A968" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="969" spans="1:4">
       <c r="A969" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B969" s="4" t="s">
-        <v>51</v>
+        <v>1028</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="972" spans="1:4">
       <c r="A972" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="973" spans="1:4">
       <c r="A973" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="974" spans="1:4">
       <c r="A974" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="976" spans="1:4">
       <c r="A976" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="977" spans="1:5">
       <c r="A977" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="978" spans="1:5">
       <c r="A978" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B978" s="4" t="s">
         <v>470</v>
@@ -13899,7 +13917,7 @@
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B979" s="3" t="s">
         <v>24</v>
@@ -13916,132 +13934,132 @@
     </row>
     <row r="980" spans="1:5">
       <c r="A980" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="981" spans="1:5">
       <c r="A981" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="982" spans="1:5">
       <c r="A982" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="983" spans="1:5">
       <c r="A983" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="984" spans="1:5">
       <c r="A984" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="985" spans="1:5">
       <c r="A985" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="986" spans="1:5">
       <c r="A986" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="987" spans="1:5">
       <c r="A987" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="988" spans="1:5">
       <c r="A988" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="989" spans="1:5">
       <c r="A989" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="990" spans="1:5">
       <c r="A990" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="991" spans="1:5">
       <c r="A991" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="992" spans="1:5">
       <c r="A992" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B1005" s="4" t="s">
         <v>76</v>
@@ -14049,37 +14067,37 @@
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B1012" s="4" t="s">
         <v>51</v>
@@ -14087,47 +14105,47 @@
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B1021" s="3" t="s">
         <v>19</v>
@@ -14135,7 +14153,7 @@
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B1022" s="3" t="s">
         <v>22</v>
@@ -14143,37 +14161,37 @@
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B1029" s="3" t="s">
         <v>19</v>
@@ -14181,17 +14199,17 @@
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B1032" s="4" t="s">
         <v>51</v>
@@ -14199,37 +14217,37 @@
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1039" s="4" t="s">
         <v>203</v>
@@ -14237,7 +14255,7 @@
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1040" s="3" t="s">
         <v>19</v>
@@ -14245,37 +14263,37 @@
     </row>
     <row r="1041" spans="1:5">
       <c r="A1041" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1042" spans="1:5">
       <c r="A1042" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1043" spans="1:5">
       <c r="A1043" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1044" spans="1:5">
       <c r="A1044" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1045" spans="1:5">
       <c r="A1045" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1046" spans="1:5">
       <c r="A1046" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1047" spans="1:5">
       <c r="A1047" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1047" s="3" t="s">
         <v>19</v>
@@ -14289,7 +14307,7 @@
     </row>
     <row r="1048" spans="1:5">
       <c r="A1048" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B1048" s="3" t="s">
         <v>33</v>
@@ -14297,7 +14315,7 @@
     </row>
     <row r="1049" spans="1:5">
       <c r="A1049" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B1049" s="4" t="s">
         <v>51</v>
@@ -14305,12 +14323,12 @@
     </row>
     <row r="1050" spans="1:5">
       <c r="A1050" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1051" spans="1:5">
       <c r="A1051" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B1051" s="3" t="s">
         <v>19</v>
@@ -14318,7 +14336,7 @@
     </row>
     <row r="1052" spans="1:5">
       <c r="A1052" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1052" s="3" t="s">
         <v>19</v>
@@ -14329,147 +14347,147 @@
     </row>
     <row r="1053" spans="1:5">
       <c r="A1053" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1054" spans="1:5">
       <c r="A1054" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1055" spans="1:5">
       <c r="A1055" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1056" spans="1:5">
       <c r="A1056" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1073" spans="1:5">
       <c r="A1073" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1074" spans="1:5">
       <c r="A1074" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1075" spans="1:5">
       <c r="A1075" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1077" spans="1:5">
       <c r="A1077" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1078" spans="1:5">
       <c r="A1078" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1079" spans="1:5">
       <c r="A1079" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1080" spans="1:5">
       <c r="A1080" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
       <c r="A1081" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E1081" s="3" t="s">
         <v>19</v>
@@ -14477,42 +14495,42 @@
     </row>
     <row r="1082" spans="1:5">
       <c r="A1082" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1083" spans="1:5">
       <c r="A1083" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1086" spans="1:5">
       <c r="A1086" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1087" spans="1:5">
       <c r="A1087" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1088" spans="1:5">
       <c r="A1088" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1089" spans="1:5">
       <c r="A1089" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1089" s="3" t="s">
         <v>19</v>
@@ -14520,7 +14538,7 @@
     </row>
     <row r="1090" spans="1:5">
       <c r="A1090" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1090" s="3" t="s">
         <v>39</v>
@@ -14529,12 +14547,12 @@
         <v>24</v>
       </c>
       <c r="E1090" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
       <c r="A1091" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E1091" s="4" t="s">
         <v>500</v>
@@ -14542,62 +14560,62 @@
     </row>
     <row r="1092" spans="1:5">
       <c r="A1092" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1093" spans="1:5">
       <c r="A1093" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1094" spans="1:5">
       <c r="A1094" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1095" spans="1:5">
       <c r="A1095" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1096" spans="1:5">
       <c r="A1096" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1097" spans="1:5">
       <c r="A1097" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1098" spans="1:5">
       <c r="A1098" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
       <c r="A1099" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
       <c r="A1101" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
       <c r="A1102" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
       <c r="A1103" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1103" s="4" t="s">
         <v>80</v>
@@ -14605,42 +14623,42 @@
     </row>
     <row r="1104" spans="1:5">
       <c r="A1104" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
       <c r="A1105" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1106" spans="1:5">
       <c r="A1106" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
       <c r="A1107" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
       <c r="A1109" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
       <c r="A1110" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1111" spans="1:5">
       <c r="A1111" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1111" s="3" t="s">
         <v>30</v>
@@ -14648,37 +14666,37 @@
     </row>
     <row r="1112" spans="1:5">
       <c r="A1112" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1113" spans="1:5">
       <c r="A1113" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1114" spans="1:5">
       <c r="A1114" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1115" spans="1:5">
       <c r="A1115" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
       <c r="A1116" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
       <c r="A1117" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1118" spans="1:5">
       <c r="A1118" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>30</v>
@@ -14689,7 +14707,7 @@
     </row>
     <row r="1119" spans="1:5">
       <c r="A1119" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>19</v>
@@ -14703,7 +14721,7 @@
     </row>
     <row r="1120" spans="1:5">
       <c r="A1120" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>30</v>
@@ -14717,7 +14735,7 @@
     </row>
     <row r="1121" spans="1:5">
       <c r="A1121" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>30</v>
@@ -14731,7 +14749,7 @@
     </row>
     <row r="1122" spans="1:5">
       <c r="A1122" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B1122" s="3" t="s">
         <v>19</v>
@@ -14745,7 +14763,7 @@
     </row>
     <row r="1123" spans="1:5">
       <c r="A1123" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1123" s="4" t="s">
         <v>51</v>
@@ -14759,7 +14777,7 @@
     </row>
     <row r="1124" spans="1:5">
       <c r="A1124" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>19</v>
@@ -14773,17 +14791,17 @@
     </row>
     <row r="1125" spans="1:5">
       <c r="A1125" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
       <c r="A1126" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
       <c r="A1127" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>19</v>
@@ -14794,37 +14812,37 @@
     </row>
     <row r="1128" spans="1:5">
       <c r="A1128" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
       <c r="A1129" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
       <c r="A1130" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
       <c r="A1131" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1132" spans="1:5">
       <c r="A1132" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
       <c r="A1133" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1134" spans="1:5">
       <c r="A1134" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>19</v>
@@ -14832,7 +14850,7 @@
     </row>
     <row r="1135" spans="1:5">
       <c r="A1135" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B1135" s="3" t="s">
         <v>19</v>
@@ -14840,7 +14858,7 @@
     </row>
     <row r="1136" spans="1:5">
       <c r="A1136" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1136" s="3" t="s">
         <v>19</v>
@@ -14848,7 +14866,7 @@
     </row>
     <row r="1137" spans="1:4">
       <c r="A1137" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B1137" s="4" t="s">
         <v>80</v>
@@ -14859,7 +14877,7 @@
     </row>
     <row r="1138" spans="1:4">
       <c r="A1138" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B1138" s="4" t="s">
         <v>203</v>
@@ -14870,7 +14888,7 @@
     </row>
     <row r="1139" spans="1:4">
       <c r="A1139" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>19</v>
@@ -14878,82 +14896,82 @@
     </row>
     <row r="1140" spans="1:4">
       <c r="A1140" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
       <c r="A1141" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
       <c r="A1142" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1143" spans="1:4">
       <c r="A1143" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
       <c r="A1144" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
       <c r="A1145" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
       <c r="A1146" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
       <c r="A1147" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
       <c r="A1148" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1149" spans="1:4">
       <c r="A1149" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
       <c r="A1150" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
       <c r="A1151" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
       <c r="A1152" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1153" spans="1:4">
       <c r="A1153" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
       <c r="A1154" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1155" spans="1:4">
       <c r="A1155" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D1155" s="3" t="s">
         <v>19</v>
@@ -14961,22 +14979,22 @@
     </row>
     <row r="1156" spans="1:4">
       <c r="A1156" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
       <c r="A1157" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
       <c r="A1158" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1159" s="3" t="s">
         <v>47</v>
@@ -14984,112 +15002,112 @@
     </row>
     <row r="1160" spans="1:4">
       <c r="A1160" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
       <c r="A1161" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
       <c r="A1162" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
       <c r="A1163" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
       <c r="A1164" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
       <c r="A1165" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
       <c r="A1166" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
       <c r="A1167" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
       <c r="A1168" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1169" spans="1:5">
       <c r="A1169" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1170" spans="1:5">
       <c r="A1170" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
       <c r="A1171" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
       <c r="A1172" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
       <c r="A1173" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
       <c r="A1174" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1175" spans="1:5">
       <c r="A1175" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
       <c r="A1176" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
       <c r="A1177" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
       <c r="A1178" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
       <c r="A1179" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
       <c r="A1180" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
       <c r="A1181" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E1181" s="3" t="s">
         <v>24</v>
@@ -15097,17 +15115,17 @@
     </row>
     <row r="1182" spans="1:5">
       <c r="A1182" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1183" spans="1:5">
       <c r="A1183" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
       <c r="A1184" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>19</v>
@@ -15115,22 +15133,22 @@
     </row>
     <row r="1185" spans="1:5">
       <c r="A1185" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1186" spans="1:5">
       <c r="A1186" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
       <c r="A1187" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1188" spans="1:5">
       <c r="A1188" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C1188" s="3" t="s">
         <v>19</v>
@@ -15138,7 +15156,7 @@
     </row>
     <row r="1189" spans="1:5">
       <c r="A1189" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B1189" s="3" t="s">
         <v>19</v>
@@ -15152,7 +15170,7 @@
     </row>
     <row r="1190" spans="1:5">
       <c r="A1190" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B1190" s="3" t="s">
         <v>19</v>
@@ -15163,12 +15181,12 @@
     </row>
     <row r="1191" spans="1:5">
       <c r="A1191" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1192" spans="1:5">
       <c r="A1192" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B1192" s="3" t="s">
         <v>19</v>
@@ -15182,10 +15200,10 @@
     </row>
     <row r="1193" spans="1:5">
       <c r="A1193" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C1193" s="3" t="s">
         <v>31</v>
@@ -15193,7 +15211,7 @@
     </row>
     <row r="1194" spans="1:5">
       <c r="A1194" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B1194" s="3" t="s">
         <v>22</v>
@@ -15207,7 +15225,7 @@
     </row>
     <row r="1195" spans="1:5">
       <c r="A1195" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>19</v>
@@ -15221,7 +15239,7 @@
     </row>
     <row r="1196" spans="1:5">
       <c r="A1196" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>24</v>
@@ -15235,7 +15253,7 @@
     </row>
     <row r="1197" spans="1:5">
       <c r="A1197" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>19</v>
@@ -15246,67 +15264,67 @@
     </row>
     <row r="1198" spans="1:5">
       <c r="A1198" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1199" spans="1:5">
       <c r="A1199" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1200" spans="1:5">
       <c r="A1200" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
       <c r="A1201" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1202" spans="1:4">
       <c r="A1202" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
       <c r="A1203" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
       <c r="A1204" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
       <c r="A1205" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1206" spans="1:4">
       <c r="A1206" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1207" spans="1:4">
       <c r="A1207" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1208" spans="1:4">
       <c r="A1208" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1209" spans="1:4">
       <c r="A1209" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1210" spans="1:4">
       <c r="A1210" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B1210" s="3" t="s">
         <v>19</v>
@@ -15317,22 +15335,22 @@
     </row>
     <row r="1211" spans="1:4">
       <c r="A1211" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
       <c r="A1212" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
       <c r="A1213" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1214" spans="1:4">
       <c r="A1214" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B1214" s="3" t="s">
         <v>19</v>
@@ -15340,52 +15358,52 @@
     </row>
     <row r="1215" spans="1:4">
       <c r="A1215" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1216" spans="1:4">
       <c r="A1216" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B1224" s="4" t="s">
         <v>51</v>
@@ -15393,12 +15411,12 @@
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B1226" s="3" t="s">
         <v>30</v>
@@ -15406,7 +15424,7 @@
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B1227" s="3" t="s">
         <v>19</v>
@@ -15414,37 +15432,37 @@
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1233" spans="1:4">
       <c r="A1233" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
       <c r="A1234" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B1234" s="3" t="s">
         <v>19</v>
@@ -15455,7 +15473,7 @@
     </row>
     <row r="1235" spans="1:4">
       <c r="A1235" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B1235" s="3" t="s">
         <v>19</v>
@@ -15463,7 +15481,7 @@
     </row>
     <row r="1236" spans="1:4">
       <c r="A1236" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B1236" s="3" t="s">
         <v>19</v>
@@ -15471,7 +15489,7 @@
     </row>
     <row r="1237" spans="1:4">
       <c r="A1237" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B1237" s="4" t="s">
         <v>115</v>
@@ -15479,17 +15497,17 @@
     </row>
     <row r="1238" spans="1:4">
       <c r="A1238" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
       <c r="A1239" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1240" spans="1:4">
       <c r="A1240" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D1240" s="3" t="s">
         <v>19</v>
@@ -15497,7 +15515,7 @@
     </row>
     <row r="1241" spans="1:4">
       <c r="A1241" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B1241" s="4" t="s">
         <v>51</v>
@@ -15505,47 +15523,47 @@
     </row>
     <row r="1242" spans="1:4">
       <c r="A1242" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
       <c r="A1243" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
       <c r="A1244" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
       <c r="A1245" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1246" spans="1:4">
       <c r="A1246" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1247" spans="1:4">
       <c r="A1247" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1248" spans="1:4">
       <c r="A1248" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1250" s="3" t="s">
         <v>24</v>
@@ -15553,12 +15571,12 @@
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B1252" s="3" t="s">
         <v>19</v>
@@ -15566,27 +15584,27 @@
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B1257" s="4" t="s">
         <v>76</v>
@@ -15594,247 +15612,247 @@
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1306" s="3" t="s">
         <v>19</v>
@@ -15842,77 +15860,77 @@
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
       <c r="A1314" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
       <c r="A1315" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
       <c r="A1316" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
       <c r="A1318" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
       <c r="A1319" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
       <c r="A1320" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
       <c r="A1321" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B1321" s="3" t="s">
         <v>30</v>
@@ -15920,27 +15938,27 @@
     </row>
     <row r="1322" spans="1:3">
       <c r="A1322" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
       <c r="A1323" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
       <c r="A1324" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
       <c r="A1325" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
       <c r="A1326" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B1326" s="3" t="s">
         <v>19</v>
@@ -15951,197 +15969,197 @@
     </row>
     <row r="1327" spans="1:3">
       <c r="A1327" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
       <c r="A1328" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1361" spans="1:4">
       <c r="A1361" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1362" spans="1:4">
       <c r="A1362" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1363" spans="1:4">
       <c r="A1363" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1364" spans="1:4">
       <c r="A1364" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1365" spans="1:4">
       <c r="A1365" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B1365" s="3" t="s">
         <v>19</v>
@@ -16149,22 +16167,22 @@
     </row>
     <row r="1366" spans="1:4">
       <c r="A1366" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
       <c r="A1367" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1368" spans="1:4">
       <c r="A1368" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1369" spans="1:4">
       <c r="A1369" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B1369" s="3" t="s">
         <v>30</v>
@@ -16178,107 +16196,107 @@
     </row>
     <row r="1370" spans="1:4">
       <c r="A1370" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
       <c r="A1371" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
       <c r="A1372" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
       <c r="A1373" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1374" spans="1:4">
       <c r="A1374" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1375" spans="1:4">
       <c r="A1375" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1376" spans="1:4">
       <c r="A1376" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
       <c r="A1377" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="A1378" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
       <c r="A1379" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
       <c r="A1380" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
       <c r="A1381" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
       <c r="A1382" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
       <c r="A1383" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
       <c r="A1384" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
       <c r="A1385" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
       <c r="A1386" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
       <c r="A1387" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
       <c r="A1388" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
       <c r="A1389" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
       <c r="A1390" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1390" s="3" t="s">
         <v>19</v>
@@ -16289,12 +16307,12 @@
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
       <c r="A1392" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C1392" s="3" t="s">
         <v>19</v>
@@ -16302,22 +16320,22 @@
     </row>
     <row r="1393" spans="1:3">
       <c r="A1393" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
       <c r="A1394" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
       <c r="A1395" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
       <c r="A1396" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B1396" s="3" t="s">
         <v>30</v>
@@ -16328,47 +16346,47 @@
     </row>
     <row r="1397" spans="1:3">
       <c r="A1397" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
       <c r="A1398" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
       <c r="A1399" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
       <c r="A1400" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
       <c r="A1401" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
       <c r="A1402" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
       <c r="A1403" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
       <c r="A1404" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
       <c r="A1405" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1405" s="3" t="s">
         <v>24</v>
@@ -16376,7 +16394,7 @@
     </row>
     <row r="1406" spans="1:3">
       <c r="A1406" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1406" s="4" t="s">
         <v>115</v>
@@ -16384,17 +16402,17 @@
     </row>
     <row r="1407" spans="1:3">
       <c r="A1407" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
       <c r="A1408" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1409" spans="1:5">
       <c r="A1409" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1409" s="4" t="s">
         <v>51</v>
@@ -16402,80 +16420,80 @@
     </row>
     <row r="1410" spans="1:5">
       <c r="A1410" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1411" spans="1:5">
       <c r="A1411" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E1411" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1412" spans="1:5">
       <c r="A1412" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1413" spans="1:5">
       <c r="A1413" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
       <c r="A1414" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
       <c r="A1415" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
       <c r="A1416" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1417" spans="1:5">
       <c r="A1417" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1418" spans="1:5">
       <c r="A1418" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1419" spans="1:5">
       <c r="A1419" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
       <c r="A1420" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1421" spans="1:5">
       <c r="A1421" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1422" spans="1:5">
       <c r="A1422" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
       <c r="A1423" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1424" spans="1:5">
       <c r="A1424" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B1424" s="4" t="s">
         <v>51</v>
@@ -16483,12 +16501,12 @@
     </row>
     <row r="1425" spans="1:4">
       <c r="A1425" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1426" spans="1:4">
       <c r="A1426" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1426" s="3" t="s">
         <v>19</v>
@@ -16496,72 +16514,72 @@
     </row>
     <row r="1427" spans="1:4">
       <c r="A1427" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1428" spans="1:4">
       <c r="A1428" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1429" spans="1:4">
       <c r="A1429" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1430" spans="1:4">
       <c r="A1430" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1431" spans="1:4">
       <c r="A1431" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1432" spans="1:4">
       <c r="A1432" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1433" spans="1:4">
       <c r="A1433" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
       <c r="A1434" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1435" spans="1:4">
       <c r="A1435" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
       <c r="A1436" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1437" spans="1:4">
       <c r="A1437" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
       <c r="A1438" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1439" spans="1:4">
       <c r="A1439" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
       <c r="A1440" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1440" s="3" t="s">
         <v>19</v>
@@ -16572,67 +16590,67 @@
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1453" s="4" t="s">
         <v>51</v>
@@ -16640,62 +16658,62 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1465" s="4" t="s">
         <v>51</v>
@@ -16703,7 +16721,7 @@
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1466" s="4" t="s">
         <v>51</v>
@@ -16711,37 +16729,37 @@
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
       <c r="A1473" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1473" s="4" t="s">
         <v>80</v>
@@ -16749,47 +16767,47 @@
     </row>
     <row r="1474" spans="1:5">
       <c r="A1474" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
       <c r="A1475" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1476" spans="1:5">
       <c r="A1476" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1477" spans="1:5">
       <c r="A1477" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1478" spans="1:5">
       <c r="A1478" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
       <c r="A1479" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1480" spans="1:5">
       <c r="A1480" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1481" spans="1:5">
       <c r="A1481" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1482" spans="1:5">
       <c r="A1482" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B1482" s="3" t="s">
         <v>24</v>
@@ -16800,32 +16818,32 @@
     </row>
     <row r="1483" spans="1:5">
       <c r="A1483" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
       <c r="A1484" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
       <c r="A1485" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1486" spans="1:5">
       <c r="A1486" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1487" spans="1:5">
       <c r="A1487" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1488" spans="1:5">
       <c r="A1488" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B1488" s="4" t="s">
         <v>51</v>
@@ -16839,7 +16857,7 @@
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B1489" s="3" t="s">
         <v>30</v>
@@ -16847,47 +16865,47 @@
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1498" s="3" t="s">
         <v>19</v>
@@ -16895,52 +16913,52 @@
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1505" spans="1:5">
       <c r="A1505" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1506" spans="1:5">
       <c r="A1506" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
       <c r="A1507" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
       <c r="A1508" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="E1508" s="3" t="s">
         <v>196</v>
@@ -16948,42 +16966,42 @@
     </row>
     <row r="1509" spans="1:5">
       <c r="A1509" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
       <c r="A1510" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
       <c r="A1511" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1512" spans="1:5">
       <c r="A1512" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
       <c r="A1513" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
       <c r="A1514" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
       <c r="A1515" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1516" spans="1:5">
       <c r="A1516" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B1516" s="4" t="s">
         <v>115</v>
@@ -16991,287 +17009,287 @@
     </row>
     <row r="1517" spans="1:5">
       <c r="A1517" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
       <c r="A1518" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
       <c r="A1519" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
       <c r="A1520" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1562" spans="1:1">
       <c r="A1562" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1563" spans="1:1">
       <c r="A1563" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1564" spans="1:1">
       <c r="A1564" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
       <c r="A1566" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1567" spans="1:1">
       <c r="A1567" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1568" spans="1:1">
       <c r="A1568" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
       <c r="A1571" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1573" s="3" t="s">
         <v>19</v>
@@ -17279,97 +17297,97 @@
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
       <c r="A1576" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
       <c r="A1578" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
       <c r="A1579" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
       <c r="A1581" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
       <c r="A1582" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
       <c r="A1583" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
       <c r="A1584" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
       <c r="A1585" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1586" spans="1:4">
       <c r="A1586" s="2" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1587" spans="1:4">
       <c r="A1587" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1588" spans="1:4">
       <c r="A1588" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1589" spans="1:4">
       <c r="A1589" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1590" spans="1:4">
       <c r="A1590" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1591" spans="1:4">
       <c r="A1591" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1592" spans="1:4">
       <c r="A1592" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1592" s="3" t="s">
         <v>19</v>
@@ -17383,7 +17401,7 @@
     </row>
     <row r="1593" spans="1:4">
       <c r="A1593" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1593" s="4" t="s">
         <v>51</v>
@@ -17394,12 +17412,12 @@
     </row>
     <row r="1594" spans="1:4">
       <c r="A1594" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
       <c r="A1595" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1595" s="3" t="s">
         <v>19</v>
@@ -17407,27 +17425,27 @@
     </row>
     <row r="1596" spans="1:4">
       <c r="A1596" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1597" spans="1:4">
       <c r="A1597" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1598" spans="1:4">
       <c r="A1598" s="2" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1599" spans="1:4">
       <c r="A1599" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1600" spans="1:4">
       <c r="A1600" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1600" s="4" t="s">
         <v>51</v>
@@ -17435,392 +17453,392 @@
     </row>
     <row r="1601" spans="1:1">
       <c r="A1601" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1602" spans="1:1">
       <c r="A1602" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1603" spans="1:1">
       <c r="A1603" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1604" spans="1:1">
       <c r="A1604" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1605" spans="1:1">
       <c r="A1605" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1606" spans="1:1">
       <c r="A1606" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1607" spans="1:1">
       <c r="A1607" s="2" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1608" spans="1:1">
       <c r="A1608" s="2" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1609" spans="1:1">
       <c r="A1609" s="2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1610" spans="1:1">
       <c r="A1610" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1611" spans="1:1">
       <c r="A1611" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1612" spans="1:1">
       <c r="A1612" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1613" spans="1:1">
       <c r="A1613" s="2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1614" spans="1:1">
       <c r="A1614" s="2" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1615" spans="1:1">
       <c r="A1615" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1616" spans="1:1">
       <c r="A1616" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1617" spans="1:1">
       <c r="A1617" s="2" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1618" spans="1:1">
       <c r="A1618" s="2" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1619" spans="1:1">
       <c r="A1619" s="2" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1620" spans="1:1">
       <c r="A1620" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1621" spans="1:1">
       <c r="A1621" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1622" spans="1:1">
       <c r="A1622" s="2" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1623" spans="1:1">
       <c r="A1623" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1624" spans="1:1">
       <c r="A1624" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1625" spans="1:1">
       <c r="A1625" s="2" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1626" spans="1:1">
       <c r="A1626" s="2" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1627" spans="1:1">
       <c r="A1627" s="2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629" s="2" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
       <c r="A1632" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633" s="2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634" s="2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635" s="2" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636" s="2" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
       <c r="A1638" s="2" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1639" spans="1:1">
       <c r="A1639" s="2" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1640" spans="1:1">
       <c r="A1640" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
       <c r="A1643" s="2" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
       <c r="A1646" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
       <c r="A1649" s="2" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1650" spans="1:1">
       <c r="A1650" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
       <c r="A1652" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1653" spans="1:1">
       <c r="A1653" s="2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654" s="2" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
       <c r="A1655" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1656" spans="1:1">
       <c r="A1656" s="2" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657" s="2" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
       <c r="A1658" s="2" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
       <c r="A1660" s="2" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1661" spans="1:1">
       <c r="A1661" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1662" spans="1:1">
       <c r="A1662" s="2" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1663" spans="1:1">
       <c r="A1663" s="2" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1664" spans="1:1">
       <c r="A1664" s="2" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
       <c r="A1665" s="2" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
       <c r="A1666" s="2" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
       <c r="A1667" s="2" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668" s="2" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
       <c r="A1669" s="2" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
       <c r="A1670" s="2" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
       <c r="A1671" s="2" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
       <c r="A1672" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
       <c r="A1673" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
       <c r="A1674" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
       <c r="A1675" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
       <c r="A1676" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
       <c r="A1677" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1678" s="4" t="s">
         <v>76</v>
@@ -17828,62 +17846,62 @@
     </row>
     <row r="1679" spans="1:2">
       <c r="A1679" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
       <c r="A1680" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
       <c r="A1681" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1682" spans="1:5">
       <c r="A1682" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
       <c r="A1683" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
       <c r="A1684" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
       <c r="A1685" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1686" spans="1:5">
       <c r="A1686" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
       <c r="A1687" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
       <c r="A1688" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
       <c r="A1689" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
       <c r="A1690" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C1690" s="3" t="s">
         <v>30</v>
@@ -17897,7 +17915,7 @@
     </row>
     <row r="1691" spans="1:5">
       <c r="A1691" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>19</v>
@@ -17908,12 +17926,12 @@
     </row>
     <row r="1692" spans="1:5">
       <c r="A1692" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
       <c r="A1693" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C1693" s="4" t="s">
         <v>115</v>
@@ -17924,7 +17942,7 @@
     </row>
     <row r="1694" spans="1:5">
       <c r="A1694" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C1694" s="4" t="s">
         <v>76</v>
@@ -17935,7 +17953,7 @@
     </row>
     <row r="1695" spans="1:5">
       <c r="A1695" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C1695" s="4" t="s">
         <v>51</v>
@@ -17943,7 +17961,7 @@
     </row>
     <row r="1696" spans="1:5">
       <c r="A1696" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C1696" s="3" t="s">
         <v>19</v>
@@ -17954,7 +17972,7 @@
     </row>
     <row r="1697" spans="1:5">
       <c r="A1697" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1697" s="4" t="s">
         <v>115</v>
@@ -17968,7 +17986,7 @@
     </row>
     <row r="1698" spans="1:5">
       <c r="A1698" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>24</v>
@@ -17979,42 +17997,42 @@
     </row>
     <row r="1699" spans="1:5">
       <c r="A1699" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1700" spans="1:5">
       <c r="A1700" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1701" spans="1:5">
       <c r="A1701" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
       <c r="A1702" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1703" spans="1:5">
       <c r="A1703" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1704" spans="1:5">
       <c r="A1704" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
       <c r="A1705" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1706" spans="1:5">
       <c r="A1706" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1706" s="3" t="s">
         <v>30</v>
@@ -18022,22 +18040,22 @@
     </row>
     <row r="1707" spans="1:5">
       <c r="A1707" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1708" spans="1:5">
       <c r="A1708" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1709" spans="1:5">
       <c r="A1709" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
       <c r="A1710" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1710" s="3" t="s">
         <v>30</v>
@@ -18045,57 +18063,57 @@
     </row>
     <row r="1711" spans="1:5">
       <c r="A1711" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1712" spans="1:5">
       <c r="A1712" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
       <c r="A1714" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
       <c r="A1715" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
       <c r="A1716" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
       <c r="A1717" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
       <c r="A1718" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
       <c r="A1719" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
       <c r="A1720" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
       <c r="A1721" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1721" s="3" t="s">
         <v>19</v>
@@ -18103,77 +18121,77 @@
     </row>
     <row r="1722" spans="1:2">
       <c r="A1722" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
       <c r="A1723" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
       <c r="A1724" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
       <c r="A1725" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
       <c r="A1726" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
       <c r="A1727" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
       <c r="A1728" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1729" spans="1:4">
       <c r="A1729" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1730" spans="1:4">
       <c r="A1730" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
       <c r="A1731" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
       <c r="A1732" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1734" spans="1:4">
       <c r="A1734" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1736" s="3" t="s">
         <v>30</v>
@@ -18187,7 +18205,7 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1737" s="3" t="s">
         <v>19</v>
@@ -18198,7 +18216,7 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1738" s="4" t="s">
         <v>51</v>
@@ -18209,7 +18227,7 @@
     </row>
     <row r="1739" spans="1:4">
       <c r="A1739" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1739" s="4" t="s">
         <v>80</v>
@@ -18217,52 +18235,52 @@
     </row>
     <row r="1740" spans="1:4">
       <c r="A1740" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
       <c r="A1744" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
       <c r="A1745" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
       <c r="A1746" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
       <c r="A1747" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
       <c r="A1748" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1749" s="4" t="s">
         <v>115</v>
@@ -18270,22 +18288,22 @@
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
       <c r="A1751" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
       <c r="A1752" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
       <c r="A1753" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1753" s="4" t="s">
         <v>44</v>
@@ -18293,52 +18311,52 @@
     </row>
     <row r="1754" spans="1:2">
       <c r="A1754" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
       <c r="A1755" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
       <c r="A1756" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
       <c r="A1757" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
       <c r="A1758" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
       <c r="A1760" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
       <c r="A1761" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
       <c r="A1762" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1763" s="3" t="s">
         <v>47</v>
@@ -18346,32 +18364,32 @@
     </row>
     <row r="1764" spans="1:2">
       <c r="A1764" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
       <c r="A1765" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
       <c r="A1766" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
       <c r="A1767" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
       <c r="A1768" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
       <c r="A1769" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1769" s="3" t="s">
         <v>19</v>
@@ -18379,57 +18397,57 @@
     </row>
     <row r="1770" spans="1:2">
       <c r="A1770" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
       <c r="A1771" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
       <c r="A1772" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
       <c r="A1773" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
       <c r="A1774" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
       <c r="A1775" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
       <c r="A1776" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1777" spans="1:5">
       <c r="A1777" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1778" spans="1:5">
       <c r="A1778" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1779" spans="1:5">
       <c r="A1779" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
       <c r="A1780" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1780" s="4" t="s">
         <v>76</v>
@@ -18437,22 +18455,22 @@
     </row>
     <row r="1781" spans="1:5">
       <c r="A1781" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1782" spans="1:5">
       <c r="A1782" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
       <c r="A1783" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1784" spans="1:5">
       <c r="A1784" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1784" s="3" t="s">
         <v>30</v>
@@ -18460,42 +18478,42 @@
     </row>
     <row r="1785" spans="1:5">
       <c r="A1785" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1786" spans="1:5">
       <c r="A1786" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1787" spans="1:5">
       <c r="A1787" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1788" spans="1:5">
       <c r="A1788" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1789" spans="1:5">
       <c r="A1789" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
       <c r="A1790" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1791" spans="1:5">
       <c r="A1791" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
       <c r="A1792" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E1792" s="3" t="s">
         <v>30</v>
@@ -18503,12 +18521,12 @@
     </row>
     <row r="1793" spans="1:5">
       <c r="A1793" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1794" spans="1:5">
       <c r="A1794" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E1794" s="3" t="s">
         <v>24</v>
@@ -18516,12 +18534,12 @@
     </row>
     <row r="1795" spans="1:5">
       <c r="A1795" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
       <c r="A1796" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E1796" s="3" t="s">
         <v>19</v>
@@ -18529,27 +18547,27 @@
     </row>
     <row r="1797" spans="1:5">
       <c r="A1797" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
       <c r="A1798" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
       <c r="A1799" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1800" spans="1:5">
       <c r="A1800" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
       <c r="A1801" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1801" s="4" t="s">
         <v>51</v>
@@ -18557,7 +18575,7 @@
     </row>
     <row r="1802" spans="1:5">
       <c r="A1802" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1802" s="4" t="s">
         <v>254</v>
@@ -18568,7 +18586,7 @@
     </row>
     <row r="1803" spans="1:5">
       <c r="A1803" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1803" s="4" t="s">
         <v>80</v>
@@ -18576,7 +18594,7 @@
     </row>
     <row r="1804" spans="1:5">
       <c r="A1804" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D1804" s="4" t="s">
         <v>76</v>
@@ -18584,17 +18602,17 @@
     </row>
     <row r="1805" spans="1:5">
       <c r="A1805" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
       <c r="A1806" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1807" spans="1:5">
       <c r="A1807" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1807" s="3" t="s">
         <v>30</v>
@@ -18602,7 +18620,7 @@
     </row>
     <row r="1808" spans="1:5">
       <c r="A1808" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1808" s="4" t="s">
         <v>115</v>
@@ -18610,22 +18628,22 @@
     </row>
     <row r="1809" spans="1:2">
       <c r="A1809" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
       <c r="A1810" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
       <c r="A1811" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
       <c r="A1812" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1812" s="4" t="s">
         <v>51</v>
@@ -18633,17 +18651,17 @@
     </row>
     <row r="1813" spans="1:2">
       <c r="A1813" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
       <c r="A1814" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
       <c r="A1815" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1815" s="3" t="s">
         <v>24</v>
@@ -18651,17 +18669,17 @@
     </row>
     <row r="1816" spans="1:2">
       <c r="A1816" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
       <c r="A1817" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
       <c r="A1818" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>24</v>
@@ -18669,57 +18687,57 @@
     </row>
     <row r="1819" spans="1:2">
       <c r="A1819" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
       <c r="A1820" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
       <c r="A1822" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
       <c r="A1823" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
       <c r="A1824" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
       <c r="A1825" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
       <c r="A1826" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
       <c r="A1827" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
       <c r="A1828" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>19</v>
@@ -18727,22 +18745,22 @@
     </row>
     <row r="1830" spans="1:2">
       <c r="A1830" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
       <c r="A1831" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
       <c r="A1832" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
       <c r="A1833" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1833" s="3" t="s">
         <v>19</v>
@@ -18750,7 +18768,7 @@
     </row>
     <row r="1834" spans="1:2">
       <c r="A1834" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1834" s="4" t="s">
         <v>51</v>
@@ -18758,42 +18776,42 @@
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
       <c r="A1836" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
       <c r="A1837" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
       <c r="A1838" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
       <c r="A1839" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
       <c r="A1840" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
       <c r="A1841" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1842" s="3" t="s">
         <v>35</v>
@@ -18801,12 +18819,12 @@
     </row>
     <row r="1843" spans="1:2">
       <c r="A1843" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
       <c r="A1844" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1844" s="3" t="s">
         <v>30</v>
@@ -18814,7 +18832,7 @@
     </row>
     <row r="1845" spans="1:2">
       <c r="A1845" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1845" s="3" t="s">
         <v>30</v>
@@ -18822,17 +18840,17 @@
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
       <c r="A1847" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
       <c r="A1848" s="2" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1848" s="3" t="s">
         <v>30</v>
@@ -18840,12 +18858,12 @@
     </row>
     <row r="1849" spans="1:2">
       <c r="A1849" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
       <c r="A1850" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B1850" s="3" t="s">
         <v>19</v>
@@ -18853,12 +18871,12 @@
     </row>
     <row r="1851" spans="1:2">
       <c r="A1851" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
       <c r="A1852" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B1852" s="4" t="s">
         <v>51</v>
@@ -18866,27 +18884,27 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
       <c r="A1855" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
       <c r="A1856" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1857" spans="1:4">
       <c r="A1857" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1857" s="3" t="s">
         <v>39</v>
@@ -18900,12 +18918,12 @@
     </row>
     <row r="1858" spans="1:4">
       <c r="A1858" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1859" spans="1:4">
       <c r="A1859" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D1859" s="3" t="s">
         <v>19</v>
@@ -18913,12 +18931,12 @@
     </row>
     <row r="1860" spans="1:4">
       <c r="A1860" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1861" spans="1:4">
       <c r="A1861" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B1861" s="3" t="s">
         <v>39</v>
@@ -18926,42 +18944,42 @@
     </row>
     <row r="1862" spans="1:4">
       <c r="A1862" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1863" spans="1:4">
       <c r="A1863" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
       <c r="A1864" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1865" spans="1:4">
       <c r="A1865" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1866" spans="1:4">
       <c r="A1866" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1867" spans="1:4">
       <c r="A1867" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1868" spans="1:4">
       <c r="A1868" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1869" spans="1:4">
       <c r="A1869" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1869" s="3" t="s">
         <v>19</v>
@@ -18969,37 +18987,37 @@
     </row>
     <row r="1870" spans="1:4">
       <c r="A1870" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1871" spans="1:4">
       <c r="A1871" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1872" spans="1:4">
       <c r="A1872" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
       <c r="A1873" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
       <c r="A1874" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1875" spans="1:4">
       <c r="A1875" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1876" spans="1:4">
       <c r="A1876" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1876" s="4" t="s">
         <v>51</v>
@@ -19007,12 +19025,12 @@
     </row>
     <row r="1877" spans="1:4">
       <c r="A1877" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1878" spans="1:4">
       <c r="A1878" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1878" s="4" t="s">
         <v>115</v>
@@ -19020,12 +19038,12 @@
     </row>
     <row r="1879" spans="1:4">
       <c r="A1879" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1880" spans="1:4">
       <c r="A1880" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1880" s="3" t="s">
         <v>39</v>
@@ -19036,7 +19054,7 @@
     </row>
     <row r="1881" spans="1:4">
       <c r="A1881" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1881" s="3" t="s">
         <v>19</v>
@@ -19047,17 +19065,17 @@
     </row>
     <row r="1882" spans="1:4">
       <c r="A1882" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
       <c r="A1883" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
       <c r="A1884" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1884" s="3" t="s">
         <v>30</v>
@@ -19065,7 +19083,7 @@
     </row>
     <row r="1885" spans="1:4">
       <c r="A1885" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1885" s="4" t="s">
         <v>51</v>
@@ -19073,27 +19091,27 @@
     </row>
     <row r="1886" spans="1:4">
       <c r="A1886" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1887" spans="1:4">
       <c r="A1887" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1888" spans="1:4">
       <c r="A1888" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
       <c r="A1889" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
       <c r="A1890" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1890" s="3" t="s">
         <v>19</v>
@@ -19101,7 +19119,7 @@
     </row>
     <row r="1891" spans="1:2">
       <c r="A1891" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1891" s="3" t="s">
         <v>47</v>
@@ -19109,17 +19127,17 @@
     </row>
     <row r="1892" spans="1:2">
       <c r="A1892" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
       <c r="A1893" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
       <c r="A1894" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1894" s="4" t="s">
         <v>203</v>
@@ -19127,7 +19145,7 @@
     </row>
     <row r="1895" spans="1:2">
       <c r="A1895" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1895" s="4" t="s">
         <v>51</v>
@@ -19135,7 +19153,7 @@
     </row>
     <row r="1896" spans="1:2">
       <c r="A1896" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1896" s="3" t="s">
         <v>20</v>
@@ -19143,17 +19161,17 @@
     </row>
     <row r="1897" spans="1:2">
       <c r="A1897" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
       <c r="A1898" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
       <c r="A1899" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1899" s="3" t="s">
         <v>35</v>
@@ -19161,57 +19179,57 @@
     </row>
     <row r="1900" spans="1:2">
       <c r="A1900" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
       <c r="A1901" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
       <c r="A1902" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
       <c r="A1903" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
       <c r="A1904" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1905" spans="1:5">
       <c r="A1905" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1906" spans="1:5">
       <c r="A1906" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1907" spans="1:5">
       <c r="A1907" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1908" spans="1:5">
       <c r="A1908" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1909" spans="1:5">
       <c r="A1909" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1910" spans="1:5">
       <c r="A1910" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1910" s="3" t="s">
         <v>19</v>
@@ -19225,7 +19243,7 @@
     </row>
     <row r="1911" spans="1:5">
       <c r="A1911" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1911" s="3" t="s">
         <v>22</v>
@@ -19236,22 +19254,22 @@
     </row>
     <row r="1912" spans="1:5">
       <c r="A1912" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1913" spans="1:5">
       <c r="A1913" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1914" spans="1:5">
       <c r="A1914" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
       <c r="A1915" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D1915" s="4" t="s">
         <v>76</v>
@@ -19259,17 +19277,17 @@
     </row>
     <row r="1916" spans="1:5">
       <c r="A1916" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1917" spans="1:5">
       <c r="A1917" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1918" spans="1:5">
       <c r="A1918" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1918" s="3" t="s">
         <v>30</v>
@@ -19277,12 +19295,12 @@
     </row>
     <row r="1919" spans="1:5">
       <c r="A1919" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
       <c r="A1920" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1920" s="4" t="s">
         <v>203</v>
@@ -19290,47 +19308,47 @@
     </row>
     <row r="1921" spans="1:2">
       <c r="A1921" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
       <c r="A1922" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
       <c r="A1923" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1924" spans="1:2">
       <c r="A1924" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
       <c r="A1925" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
       <c r="A1926" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
       <c r="A1927" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
       <c r="A1928" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
       <c r="A1929" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1929" s="4" t="s">
         <v>51</v>
@@ -19338,7 +19356,7 @@
     </row>
     <row r="1930" spans="1:2">
       <c r="A1930" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1930" s="3" t="s">
         <v>19</v>
@@ -19346,7 +19364,7 @@
     </row>
     <row r="1931" spans="1:2">
       <c r="A1931" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1931" s="3" t="s">
         <v>30</v>
@@ -19354,7 +19372,7 @@
     </row>
     <row r="1932" spans="1:2">
       <c r="A1932" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1932" s="3" t="s">
         <v>19</v>
@@ -19362,62 +19380,74 @@
     </row>
     <row r="1933" spans="1:2">
       <c r="A1933" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
       <c r="A1934" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
+      </c>
+      <c r="B1934" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
       <c r="A1935" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
       <c r="A1936" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1937" spans="1:4">
       <c r="A1937" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
+      </c>
+      <c r="B1937" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
       <c r="A1938" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
+      </c>
+      <c r="B1938" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1939" spans="1:4">
       <c r="A1939" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
       <c r="A1940" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
+      </c>
+      <c r="B1940" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1941" spans="1:4">
       <c r="A1941" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1942" spans="1:4">
       <c r="A1942" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1943" spans="1:4">
       <c r="A1943" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1944" spans="1:4">
       <c r="A1944" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1944" s="3" t="s">
         <v>24</v>
@@ -19428,7 +19458,7 @@
     </row>
     <row r="1945" spans="1:4">
       <c r="A1945" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1945" s="3" t="s">
         <v>24</v>
@@ -19439,24 +19469,32 @@
     </row>
     <row r="1946" spans="1:4">
       <c r="A1946" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
       <c r="A1947" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
       <c r="A1948" s="2" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B1948" s="4" t="s">
-        <v>51</v>
+        <v>2009</v>
+      </c>
+      <c r="B1948" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4">
+      <c r="A1949" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1949" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1948"/>
+  <autoFilter ref="A1:E1949"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -21401,6 +21439,7 @@
     <hyperlink ref="A1946" r:id="rId1941"/>
     <hyperlink ref="A1947" r:id="rId1942"/>
     <hyperlink ref="A1948" r:id="rId1943"/>
+    <hyperlink ref="A1949" r:id="rId1944"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1949</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$1989</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="2053">
   <si>
     <t>№</t>
   </si>
@@ -628,57 +628,60 @@
     <t>153</t>
   </si>
   <si>
+    <t>1+, 9-</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>5-</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -2953,9 +2956,6 @@
     <t>11+, 28-</t>
   </si>
   <si>
-    <t>1+, 9-</t>
-  </si>
-  <si>
     <t>911</t>
   </si>
   <si>
@@ -5092,6 +5092,9 @@
     <t>1620</t>
   </si>
   <si>
+    <t>22-</t>
+  </si>
+  <si>
     <t>1621</t>
   </si>
   <si>
@@ -6050,6 +6053,129 @@
   </si>
   <si>
     <t>1940</t>
+  </si>
+  <si>
+    <t>20-</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
   </si>
 </sst>
 </file>
@@ -6415,7 +6541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1949"/>
+  <dimension ref="A1:E1989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6466,16 +6592,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1492</v>
+        <v>1417</v>
       </c>
       <c r="C3">
-        <v>3664</v>
+        <v>3586</v>
       </c>
       <c r="D3">
-        <v>5687</v>
+        <v>5427</v>
       </c>
       <c r="E3">
-        <v>12184</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6483,16 +6609,16 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7945</v>
+        <v>8263</v>
       </c>
       <c r="C4">
-        <v>4507</v>
+        <v>4665</v>
       </c>
       <c r="D4">
-        <v>3311</v>
+        <v>3498</v>
       </c>
       <c r="E4">
-        <v>1763</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6500,16 +6626,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1390</v>
+        <v>1556</v>
       </c>
       <c r="C5">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="D5">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="E5">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6517,16 +6643,16 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6534,13 +6660,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -6551,16 +6677,16 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C8">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E8">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6568,16 +6694,16 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7445,6 +7571,9 @@
       <c r="A85" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B85" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
@@ -7594,7 +7723,7 @@
         <v>135</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7778,6 +7907,9 @@
       <c r="A124" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="B124" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
@@ -8166,11 +8298,14 @@
       <c r="A162" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>115</v>
+      <c r="C162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8178,10 +8313,13 @@
         <v>204</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -8295,22 +8433,22 @@
         <v>19</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>19</v>
@@ -8324,10 +8462,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>30</v>
@@ -8335,27 +8473,27 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>19</v>
@@ -8363,27 +8501,27 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>30</v>
@@ -8391,12 +8529,12 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>30</v>
@@ -8407,12 +8545,12 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>30</v>
@@ -8420,22 +8558,22 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>24</v>
@@ -8443,22 +8581,22 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>24</v>
@@ -8475,7 +8613,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>31</v>
@@ -8483,46 +8621,46 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>51</v>
@@ -8530,7 +8668,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>51</v>
@@ -8541,12 +8679,12 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>80</v>
@@ -8554,7 +8692,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>76</v>
@@ -8562,7 +8700,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>19</v>
@@ -8570,27 +8708,27 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>19</v>
@@ -8598,57 +8736,57 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>22</v>
@@ -8656,37 +8794,37 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>39</v>
@@ -8694,12 +8832,12 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>86</v>
@@ -8713,7 +8851,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>24</v>
@@ -8721,7 +8859,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>19</v>
@@ -8732,7 +8870,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>51</v>
@@ -8740,47 +8878,47 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>19</v>
@@ -8791,27 +8929,27 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>30</v>
@@ -8819,22 +8957,22 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>19</v>
@@ -8845,32 +8983,32 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>19</v>
@@ -8878,17 +9016,17 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>24</v>
@@ -8902,7 +9040,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>30</v>
@@ -8916,7 +9054,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>19</v>
@@ -8924,7 +9062,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>51</v>
@@ -8932,7 +9070,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>19</v>
@@ -8943,17 +9081,17 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>86</v>
@@ -8964,7 +9102,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>22</v>
@@ -8975,7 +9113,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>30</v>
@@ -8983,12 +9121,12 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>19</v>
@@ -8996,12 +9134,12 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>24</v>
@@ -9012,7 +9150,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>86</v>
@@ -9020,52 +9158,52 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>19</v>
@@ -9079,7 +9217,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>24</v>
@@ -9087,7 +9225,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>24</v>
@@ -9098,30 +9236,36 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>31</v>
@@ -9129,12 +9273,12 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>31</v>
@@ -9145,7 +9289,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>19</v>
@@ -9156,7 +9300,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>115</v>
@@ -9164,7 +9308,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>19</v>
@@ -9175,7 +9319,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>24</v>
@@ -9189,62 +9333,62 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>19</v>
@@ -9252,12 +9396,18 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>19</v>
@@ -9265,7 +9415,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>19</v>
@@ -9282,7 +9432,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>19</v>
@@ -9290,7 +9440,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>76</v>
@@ -9298,7 +9448,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>86</v>
@@ -9306,12 +9456,12 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>115</v>
@@ -9319,22 +9469,22 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>39</v>
@@ -9342,7 +9492,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>22</v>
@@ -9353,7 +9503,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>19</v>
@@ -9361,13 +9511,13 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>19</v>
@@ -9375,12 +9525,12 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>86</v>
@@ -9391,7 +9541,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>19</v>
@@ -9405,7 +9555,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>19</v>
@@ -9413,7 +9563,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>30</v>
@@ -9424,12 +9574,12 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>22</v>
@@ -9443,7 +9593,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>19</v>
@@ -9451,7 +9601,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>30</v>
@@ -9459,17 +9609,17 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>19</v>
@@ -9483,12 +9633,12 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>22</v>
@@ -9496,12 +9646,12 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>19</v>
@@ -9512,7 +9662,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -9520,12 +9670,12 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>24</v>
@@ -9533,7 +9683,7 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>24</v>
@@ -9541,7 +9691,7 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>86</v>
@@ -9549,7 +9699,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>51</v>
@@ -9557,7 +9707,7 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>30</v>
@@ -9568,12 +9718,12 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>19</v>
@@ -9584,7 +9734,7 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>19</v>
@@ -9595,35 +9745,35 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>76</v>
@@ -9631,7 +9781,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>30</v>
@@ -9648,32 +9798,32 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>51</v>
@@ -9681,12 +9831,12 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>19</v>
@@ -9694,12 +9844,12 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>51</v>
@@ -9713,12 +9863,12 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>86</v>
@@ -9726,7 +9876,7 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>22</v>
@@ -9737,12 +9887,12 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>19</v>
@@ -9753,7 +9903,7 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>51</v>
@@ -9761,47 +9911,47 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>24</v>
@@ -9812,7 +9962,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>20</v>
@@ -9820,12 +9970,12 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>19</v>
@@ -9833,12 +9983,12 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>19</v>
@@ -9849,7 +9999,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>86</v>
@@ -9857,32 +10007,32 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>39</v>
@@ -9890,7 +10040,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>19</v>
@@ -9901,7 +10051,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>51</v>
@@ -9912,12 +10062,15 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>19</v>
@@ -9925,47 +10078,47 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>19</v>
@@ -9973,50 +10126,50 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>24</v>
@@ -10024,17 +10177,17 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>51</v>
@@ -10042,67 +10195,67 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>19</v>
@@ -10113,37 +10266,37 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>19</v>
@@ -10151,40 +10304,40 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>19</v>
@@ -10195,7 +10348,7 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>20</v>
@@ -10209,52 +10362,52 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>19</v>
@@ -10265,7 +10418,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>51</v>
@@ -10273,17 +10426,17 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>19</v>
@@ -10291,28 +10444,28 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>19</v>
@@ -10323,22 +10476,22 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>19</v>
@@ -10346,12 +10499,12 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>86</v>
@@ -10359,12 +10512,12 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>80</v>
@@ -10375,47 +10528,47 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>22</v>
@@ -10426,42 +10579,42 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>19</v>
@@ -10469,20 +10622,26 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>19</v>
@@ -10493,17 +10652,17 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>76</v>
@@ -10514,17 +10673,17 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>24</v>
@@ -10532,7 +10691,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>51</v>
@@ -10540,22 +10699,22 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>30</v>
@@ -10572,37 +10731,37 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>30</v>
@@ -10613,12 +10772,12 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>24</v>
@@ -10626,7 +10785,7 @@
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>24</v>
@@ -10643,7 +10802,7 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>19</v>
@@ -10651,7 +10810,7 @@
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>30</v>
@@ -10659,7 +10818,7 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>19</v>
@@ -10667,7 +10826,7 @@
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C527" s="3" t="s">
         <v>19</v>
@@ -10675,7 +10834,7 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>35</v>
@@ -10689,12 +10848,12 @@
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>19</v>
@@ -10702,7 +10861,7 @@
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>194</v>
@@ -10710,17 +10869,17 @@
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>39</v>
@@ -10734,17 +10893,17 @@
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>19</v>
@@ -10755,10 +10914,10 @@
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>22</v>
@@ -10772,7 +10931,7 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>19</v>
@@ -10780,22 +10939,22 @@
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>19</v>
@@ -10806,30 +10965,33 @@
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>24</v>
@@ -10846,20 +11008,20 @@
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>19</v>
@@ -10870,7 +11032,7 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>19</v>
@@ -10881,7 +11043,7 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>18</v>
@@ -10898,12 +11060,12 @@
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>76</v>
@@ -10911,25 +11073,25 @@
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>22</v>
@@ -10943,22 +11105,25 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>19</v>
@@ -10975,17 +11140,17 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D566" s="4" t="s">
         <v>51</v>
@@ -10993,90 +11158,90 @@
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>24</v>
@@ -11087,12 +11252,12 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>19</v>
@@ -11109,7 +11274,7 @@
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>30</v>
@@ -11123,12 +11288,12 @@
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>30</v>
@@ -11136,92 +11301,92 @@
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>30</v>
@@ -11238,17 +11403,17 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>30</v>
@@ -11256,32 +11421,32 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>19</v>
@@ -11298,93 +11463,93 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>31</v>
@@ -11392,52 +11557,52 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>19</v>
@@ -11451,22 +11616,25 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>19</v>
@@ -11477,12 +11645,12 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>22</v>
@@ -11493,20 +11661,20 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>19</v>
@@ -11517,7 +11685,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>19</v>
@@ -11531,27 +11699,27 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>30</v>
@@ -11559,82 +11727,82 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>24</v>
@@ -11642,32 +11810,32 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>19</v>
@@ -11675,22 +11843,25 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>30</v>
@@ -11704,7 +11875,7 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>19</v>
@@ -11718,7 +11889,7 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>22</v>
@@ -11726,15 +11897,15 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>19</v>
@@ -11751,12 +11922,12 @@
     </row>
     <row r="688" spans="1:5">
       <c r="A688" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>30</v>
@@ -11773,12 +11944,12 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="691" spans="1:5">
       <c r="A691" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>24</v>
@@ -11789,17 +11960,17 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>19</v>
@@ -11816,7 +11987,7 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>19</v>
@@ -11824,12 +11995,12 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C697" s="4" t="s">
         <v>51</v>
@@ -11837,7 +12008,7 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>19</v>
@@ -11845,12 +12016,12 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="700" spans="1:5">
       <c r="A700" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>19</v>
@@ -11864,10 +12035,10 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>24</v>
@@ -11881,7 +12052,7 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>24</v>
@@ -11889,7 +12060,7 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>19</v>
@@ -11900,17 +12071,17 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>19</v>
@@ -11924,7 +12095,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>115</v>
@@ -11932,42 +12103,42 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C715" s="3" t="s">
         <v>19</v>
@@ -11975,27 +12146,27 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>35</v>
@@ -12006,7 +12177,7 @@
     </row>
     <row r="721" spans="1:5">
       <c r="A721" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>22</v>
@@ -12017,17 +12188,17 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>19</v>
@@ -12038,67 +12209,67 @@
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>24</v>
@@ -12106,47 +12277,47 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B746" s="4" t="s">
         <v>115</v>
@@ -12154,27 +12325,27 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>19</v>
@@ -12182,7 +12353,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B752" s="4" t="s">
         <v>51</v>
@@ -12190,37 +12361,37 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="756" spans="1:5">
       <c r="A756" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B759" s="4" t="s">
         <v>51</v>
@@ -12228,22 +12399,22 @@
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>19</v>
@@ -12260,7 +12431,7 @@
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>30</v>
@@ -12277,7 +12448,7 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>19</v>
@@ -12291,7 +12462,7 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>30</v>
@@ -12305,12 +12476,12 @@
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>86</v>
@@ -12321,7 +12492,7 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>30</v>
@@ -12332,17 +12503,17 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B772" s="4" t="s">
         <v>51</v>
@@ -12353,17 +12524,17 @@
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>19</v>
@@ -12380,17 +12551,17 @@
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>33</v>
@@ -12398,22 +12569,22 @@
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>19</v>
@@ -12430,22 +12601,22 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>22</v>
@@ -12462,7 +12633,7 @@
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>24</v>
@@ -12476,7 +12647,7 @@
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B788" s="4" t="s">
         <v>115</v>
@@ -12484,20 +12655,20 @@
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B791" s="4" t="s">
         <v>51</v>
@@ -12505,7 +12676,7 @@
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C792" s="4" t="s">
         <v>51</v>
@@ -12516,7 +12687,7 @@
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>24</v>
@@ -12524,7 +12695,7 @@
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>24</v>
@@ -12532,12 +12703,12 @@
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B796" s="4" t="s">
         <v>51</v>
@@ -12545,17 +12716,17 @@
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>19</v>
@@ -12563,7 +12734,7 @@
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B800" s="4" t="s">
         <v>80</v>
@@ -12577,7 +12748,7 @@
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>19</v>
@@ -12588,7 +12759,7 @@
     </row>
     <row r="802" spans="1:5">
       <c r="A802" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>19</v>
@@ -12596,7 +12767,7 @@
     </row>
     <row r="803" spans="1:5">
       <c r="A803" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C803" s="3" t="s">
         <v>19</v>
@@ -12604,7 +12775,7 @@
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B804" s="4" t="s">
         <v>51</v>
@@ -12612,17 +12783,17 @@
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>19</v>
@@ -12634,35 +12805,35 @@
         <v>30</v>
       </c>
       <c r="E807" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="810" spans="1:5">
       <c r="A810" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D812" s="3" t="s">
         <v>30</v>
@@ -12670,7 +12841,7 @@
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>30</v>
@@ -12681,52 +12852,52 @@
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="819" spans="1:5">
       <c r="A819" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="821" spans="1:5">
       <c r="A821" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="823" spans="1:5">
       <c r="A823" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>19</v>
@@ -12734,17 +12905,17 @@
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>19</v>
@@ -12758,7 +12929,7 @@
     </row>
     <row r="827" spans="1:5">
       <c r="A827" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>19</v>
@@ -12772,7 +12943,7 @@
     </row>
     <row r="828" spans="1:5">
       <c r="A828" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>30</v>
@@ -12789,17 +12960,17 @@
     </row>
     <row r="829" spans="1:5">
       <c r="A829" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="830" spans="1:5">
       <c r="A830" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>24</v>
@@ -12816,81 +12987,81 @@
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>20</v>
@@ -12901,12 +13072,12 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>24</v>
@@ -12917,7 +13088,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>19</v>
@@ -12931,22 +13102,22 @@
     </row>
     <row r="849" spans="1:5">
       <c r="A849" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="850" spans="1:5">
       <c r="A850" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>19</v>
@@ -12957,7 +13128,7 @@
     </row>
     <row r="853" spans="1:5">
       <c r="A853" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>31</v>
@@ -12971,17 +13142,17 @@
     </row>
     <row r="854" spans="1:5">
       <c r="A854" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="855" spans="1:5">
       <c r="A855" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="856" spans="1:5">
       <c r="A856" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>30</v>
@@ -12992,17 +13163,17 @@
     </row>
     <row r="857" spans="1:5">
       <c r="A857" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="858" spans="1:5">
       <c r="A858" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="859" spans="1:5">
       <c r="A859" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>22</v>
@@ -13019,22 +13190,22 @@
     </row>
     <row r="860" spans="1:5">
       <c r="A860" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="861" spans="1:5">
       <c r="A861" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="862" spans="1:5">
       <c r="A862" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="863" spans="1:5">
       <c r="A863" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>19</v>
@@ -13048,27 +13219,27 @@
     </row>
     <row r="864" spans="1:5">
       <c r="A864" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="865" spans="1:5">
       <c r="A865" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="866" spans="1:5">
       <c r="A866" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="867" spans="1:5">
       <c r="A867" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="868" spans="1:5">
       <c r="A868" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>22</v>
@@ -13079,52 +13250,52 @@
     </row>
     <row r="869" spans="1:5">
       <c r="A869" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="870" spans="1:5">
       <c r="A870" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="871" spans="1:5">
       <c r="A871" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="872" spans="1:5">
       <c r="A872" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="873" spans="1:5">
       <c r="A873" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="874" spans="1:5">
       <c r="A874" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="875" spans="1:5">
       <c r="A875" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="876" spans="1:5">
       <c r="A876" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="877" spans="1:5">
       <c r="A877" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="878" spans="1:5">
       <c r="A878" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>19</v>
@@ -13135,18 +13306,18 @@
     </row>
     <row r="879" spans="1:5">
       <c r="A879" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="880" spans="1:5">
       <c r="A880" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E880" s="3" t="s">
         <v>22</v>
@@ -13154,32 +13325,32 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D886" s="3" t="s">
         <v>30</v>
@@ -13187,7 +13358,7 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>19</v>
@@ -13198,52 +13369,52 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="897" spans="1:5">
       <c r="A897" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>19</v>
@@ -13254,22 +13425,22 @@
     </row>
     <row r="898" spans="1:5">
       <c r="A898" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="899" spans="1:5">
       <c r="A899" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="900" spans="1:5">
       <c r="A900" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="901" spans="1:5">
       <c r="A901" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>22</v>
@@ -13286,10 +13457,10 @@
     </row>
     <row r="902" spans="1:5">
       <c r="A902" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C902" s="3" t="s">
         <v>19</v>
@@ -13297,7 +13468,7 @@
     </row>
     <row r="903" spans="1:5">
       <c r="A903" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>24</v>
@@ -13314,7 +13485,7 @@
     </row>
     <row r="904" spans="1:5">
       <c r="A904" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>19</v>
@@ -13328,22 +13499,22 @@
     </row>
     <row r="905" spans="1:5">
       <c r="A905" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="906" spans="1:5">
       <c r="A906" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="907" spans="1:5">
       <c r="A907" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="908" spans="1:5">
       <c r="A908" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>24</v>
@@ -13354,7 +13525,7 @@
     </row>
     <row r="909" spans="1:5">
       <c r="A909" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>19</v>
@@ -13365,17 +13536,17 @@
     </row>
     <row r="910" spans="1:5">
       <c r="A910" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="911" spans="1:5">
       <c r="A911" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="912" spans="1:5">
       <c r="A912" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>20</v>
@@ -13392,25 +13563,25 @@
     </row>
     <row r="913" spans="1:5">
       <c r="A913" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="914" spans="1:5">
       <c r="A914" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="915" spans="1:5">
       <c r="A915" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>62</v>
@@ -13427,7 +13598,7 @@
     </row>
     <row r="917" spans="1:5">
       <c r="A917" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>33</v>
@@ -13441,7 +13612,7 @@
     </row>
     <row r="918" spans="1:5">
       <c r="A918" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>39</v>
@@ -13449,13 +13620,13 @@
     </row>
     <row r="919" spans="1:5">
       <c r="A919" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>978</v>
+        <v>203</v>
       </c>
       <c r="D919" s="3" t="s">
         <v>19</v>
@@ -13551,7 +13722,16 @@
         <v>993</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C934" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -13906,7 +14086,7 @@
         <v>1037</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C978" s="4" t="s">
         <v>115</v>
@@ -13936,6 +14116,9 @@
       <c r="A980" s="2" t="s">
         <v>1039</v>
       </c>
+      <c r="B980" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="981" spans="1:5">
       <c r="A981" s="2" t="s">
@@ -13997,67 +14180,76 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="993" spans="1:2">
+    <row r="993" spans="1:4">
       <c r="A993" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="994" spans="1:2">
+    <row r="994" spans="1:4">
       <c r="A994" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="995" spans="1:2">
+    <row r="995" spans="1:4">
       <c r="A995" s="2" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="996" spans="1:2">
+      <c r="B995" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C995" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D995" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4">
       <c r="A996" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="997" spans="1:2">
+    <row r="997" spans="1:4">
       <c r="A997" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="998" spans="1:2">
+    <row r="998" spans="1:4">
       <c r="A998" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="999" spans="1:2">
+    <row r="999" spans="1:4">
       <c r="A999" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1000" spans="1:2">
+    <row r="1000" spans="1:4">
       <c r="A1000" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1001" spans="1:2">
+    <row r="1001" spans="1:4">
       <c r="A1001" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1002" spans="1:2">
+    <row r="1002" spans="1:4">
       <c r="A1002" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1003" spans="1:2">
+    <row r="1003" spans="1:4">
       <c r="A1003" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1004" spans="1:2">
+    <row r="1004" spans="1:4">
       <c r="A1004" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1005" spans="1:2">
+    <row r="1005" spans="1:4">
       <c r="A1005" s="2" t="s">
         <v>1064</v>
       </c>
@@ -14065,17 +14257,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1006" spans="1:2">
+    <row r="1006" spans="1:4">
       <c r="A1006" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1007" spans="1:2">
+    <row r="1007" spans="1:4">
       <c r="A1007" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1008" spans="1:2">
+    <row r="1008" spans="1:4">
       <c r="A1008" s="2" t="s">
         <v>1067</v>
       </c>
@@ -14250,7 +14442,7 @@
         <v>1098</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -14554,8 +14746,11 @@
       <c r="A1091" s="2" t="s">
         <v>1151</v>
       </c>
+      <c r="B1091" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E1091" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1092" spans="1:5">
@@ -14880,7 +15075,7 @@
         <v>1198</v>
       </c>
       <c r="B1138" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D1138" s="4" t="s">
         <v>51</v>
@@ -15128,7 +15323,7 @@
         <v>1244</v>
       </c>
       <c r="B1184" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1185" spans="1:5">
@@ -15150,6 +15345,9 @@
       <c r="A1188" s="2" t="s">
         <v>1248</v>
       </c>
+      <c r="B1188" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C1188" s="3" t="s">
         <v>19</v>
       </c>
@@ -15165,7 +15363,7 @@
         <v>18</v>
       </c>
       <c r="E1189" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1190" spans="1:5">
@@ -15189,7 +15387,7 @@
         <v>1252</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C1192" s="3" t="s">
         <v>47</v>
@@ -15203,7 +15401,7 @@
         <v>1253</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>978</v>
+        <v>36</v>
       </c>
       <c r="C1193" s="3" t="s">
         <v>31</v>
@@ -15214,7 +15412,7 @@
         <v>1254</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1194" s="3" t="s">
         <v>22</v>
@@ -15228,7 +15426,7 @@
         <v>1255</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C1195" s="3" t="s">
         <v>19</v>
@@ -15242,7 +15440,7 @@
         <v>1256</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1196" s="3" t="s">
         <v>19</v>
@@ -15256,7 +15454,7 @@
         <v>1257</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C1197" s="3" t="s">
         <v>30</v>
@@ -16761,8 +16959,8 @@
       <c r="A1473" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="B1473" s="4" t="s">
-        <v>80</v>
+      <c r="B1473" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -17026,6 +17224,9 @@
       <c r="A1520" s="2" t="s">
         <v>1581</v>
       </c>
+      <c r="B1520" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521" s="2" t="s">
@@ -17407,7 +17608,7 @@
         <v>51</v>
       </c>
       <c r="D1593" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -17531,314 +17732,353 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="1617" spans="1:1">
+    <row r="1617" spans="1:5">
       <c r="A1617" s="2" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="1618" spans="1:1">
+    <row r="1618" spans="1:5">
       <c r="A1618" s="2" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="1619" spans="1:1">
+    <row r="1619" spans="1:5">
       <c r="A1619" s="2" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="1620" spans="1:1">
+    <row r="1620" spans="1:5">
       <c r="A1620" s="2" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="1621" spans="1:1">
+    <row r="1621" spans="1:5">
       <c r="A1621" s="2" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="1622" spans="1:1">
+    <row r="1622" spans="1:5">
       <c r="A1622" s="2" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="1623" spans="1:1">
+    <row r="1623" spans="1:5">
       <c r="A1623" s="2" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="1624" spans="1:1">
+    <row r="1624" spans="1:5">
       <c r="A1624" s="2" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="1625" spans="1:1">
+    <row r="1625" spans="1:5">
       <c r="A1625" s="2" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="1626" spans="1:1">
+      <c r="B1625" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1625" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1625" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1625" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5">
       <c r="A1626" s="2" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="1627" spans="1:1">
+      <c r="B1626" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5">
       <c r="A1627" s="2" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="1628" spans="1:1">
+      <c r="B1627" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5">
       <c r="A1628" s="2" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="1629" spans="1:1">
+    <row r="1629" spans="1:5">
       <c r="A1629" s="2" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="1630" spans="1:1">
+      <c r="B1629" s="4" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5">
       <c r="A1630" s="2" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:1">
+        <v>1692</v>
+      </c>
+      <c r="B1630" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5">
       <c r="A1631" s="2" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:1">
+        <v>1693</v>
+      </c>
+      <c r="B1631" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5">
       <c r="A1632" s="2" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:1">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2">
       <c r="A1633" s="2" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:1">
+        <v>1695</v>
+      </c>
+      <c r="B1633" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2">
       <c r="A1634" s="2" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:1">
+        <v>1696</v>
+      </c>
+      <c r="B1634" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2">
       <c r="A1635" s="2" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:1">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2">
       <c r="A1636" s="2" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:1">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2">
       <c r="A1637" s="2" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2">
       <c r="A1638" s="2" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2">
       <c r="A1639" s="2" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2">
       <c r="A1640" s="2" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:1">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2">
       <c r="A1641" s="2" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:1">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2">
       <c r="A1642" s="2" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2">
       <c r="A1643" s="2" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:1">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2">
       <c r="A1644" s="2" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:1">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2">
       <c r="A1645" s="2" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2">
       <c r="A1646" s="2" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2">
       <c r="A1647" s="2" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:1">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2">
       <c r="A1648" s="2" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2">
       <c r="A1649" s="2" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:1">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2">
       <c r="A1650" s="2" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2">
       <c r="A1651" s="2" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:1">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2">
       <c r="A1652" s="2" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:1">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2">
       <c r="A1653" s="2" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:1">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2">
       <c r="A1654" s="2" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:1">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2">
       <c r="A1655" s="2" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:1">
+        <v>1717</v>
+      </c>
+      <c r="B1655" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2">
       <c r="A1656" s="2" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:1">
+        <v>1718</v>
+      </c>
+      <c r="B1656" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2">
       <c r="A1657" s="2" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:1">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2">
       <c r="A1658" s="2" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2">
       <c r="A1659" s="2" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:1">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2">
       <c r="A1660" s="2" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:1">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2">
       <c r="A1661" s="2" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:1">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2">
       <c r="A1662" s="2" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:1">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2">
       <c r="A1663" s="2" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:1">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2">
       <c r="A1664" s="2" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
       <c r="A1665" s="2" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
       <c r="A1666" s="2" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
       <c r="A1667" s="2" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668" s="2" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
       <c r="A1669" s="2" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
       <c r="A1670" s="2" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
       <c r="A1671" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
       <c r="A1672" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
       <c r="A1673" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
       <c r="A1674" s="2" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
       <c r="A1675" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
       <c r="A1676" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
       <c r="A1677" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1678" s="4" t="s">
         <v>76</v>
@@ -17846,62 +18086,62 @@
     </row>
     <row r="1679" spans="1:2">
       <c r="A1679" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
       <c r="A1680" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
       <c r="A1681" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1682" spans="1:5">
       <c r="A1682" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1683" spans="1:5">
       <c r="A1683" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
       <c r="A1684" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1685" spans="1:5">
       <c r="A1685" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1686" spans="1:5">
       <c r="A1686" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
       <c r="A1687" s="2" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
       <c r="A1688" s="2" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
       <c r="A1689" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
       <c r="A1690" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C1690" s="3" t="s">
         <v>30</v>
@@ -17915,7 +18155,7 @@
     </row>
     <row r="1691" spans="1:5">
       <c r="A1691" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>19</v>
@@ -17926,12 +18166,12 @@
     </row>
     <row r="1692" spans="1:5">
       <c r="A1692" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
       <c r="A1693" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C1693" s="4" t="s">
         <v>115</v>
@@ -17942,7 +18182,7 @@
     </row>
     <row r="1694" spans="1:5">
       <c r="A1694" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C1694" s="4" t="s">
         <v>76</v>
@@ -17953,7 +18193,7 @@
     </row>
     <row r="1695" spans="1:5">
       <c r="A1695" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C1695" s="4" t="s">
         <v>51</v>
@@ -17961,7 +18201,7 @@
     </row>
     <row r="1696" spans="1:5">
       <c r="A1696" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C1696" s="3" t="s">
         <v>19</v>
@@ -17972,7 +18212,7 @@
     </row>
     <row r="1697" spans="1:5">
       <c r="A1697" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1697" s="4" t="s">
         <v>115</v>
@@ -17986,7 +18226,7 @@
     </row>
     <row r="1698" spans="1:5">
       <c r="A1698" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>24</v>
@@ -17997,42 +18237,42 @@
     </row>
     <row r="1699" spans="1:5">
       <c r="A1699" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1700" spans="1:5">
       <c r="A1700" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1701" spans="1:5">
       <c r="A1701" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
       <c r="A1702" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1703" spans="1:5">
       <c r="A1703" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1704" spans="1:5">
       <c r="A1704" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
       <c r="A1705" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1706" spans="1:5">
       <c r="A1706" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1706" s="3" t="s">
         <v>30</v>
@@ -18040,22 +18280,22 @@
     </row>
     <row r="1707" spans="1:5">
       <c r="A1707" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1708" spans="1:5">
       <c r="A1708" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1709" spans="1:5">
       <c r="A1709" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1710" spans="1:5">
       <c r="A1710" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1710" s="3" t="s">
         <v>30</v>
@@ -18063,57 +18303,60 @@
     </row>
     <row r="1711" spans="1:5">
       <c r="A1711" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1712" spans="1:5">
       <c r="A1712" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
+      </c>
+      <c r="B1712" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
       <c r="A1714" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
       <c r="A1715" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
       <c r="A1716" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
       <c r="A1717" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
       <c r="A1718" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
       <c r="A1719" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
       <c r="A1720" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
       <c r="A1721" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1721" s="3" t="s">
         <v>19</v>
@@ -18121,77 +18364,80 @@
     </row>
     <row r="1722" spans="1:2">
       <c r="A1722" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
       <c r="A1723" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
       <c r="A1724" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
       <c r="A1725" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
       <c r="A1726" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
       <c r="A1727" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
       <c r="A1728" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1729" spans="1:4">
       <c r="A1729" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1730" spans="1:4">
       <c r="A1730" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
       <c r="A1731" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
+      </c>
+      <c r="B1731" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
       <c r="A1732" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1733" spans="1:4">
       <c r="A1733" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1734" spans="1:4">
       <c r="A1734" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
       <c r="A1735" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1736" spans="1:4">
       <c r="A1736" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1736" s="3" t="s">
         <v>30</v>
@@ -18205,7 +18451,7 @@
     </row>
     <row r="1737" spans="1:4">
       <c r="A1737" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1737" s="3" t="s">
         <v>19</v>
@@ -18216,7 +18462,7 @@
     </row>
     <row r="1738" spans="1:4">
       <c r="A1738" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1738" s="4" t="s">
         <v>51</v>
@@ -18227,7 +18473,7 @@
     </row>
     <row r="1739" spans="1:4">
       <c r="A1739" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1739" s="4" t="s">
         <v>80</v>
@@ -18235,128 +18481,137 @@
     </row>
     <row r="1740" spans="1:4">
       <c r="A1740" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1741" spans="1:4">
       <c r="A1741" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1742" spans="1:4">
       <c r="A1742" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1743" spans="1:4">
       <c r="A1743" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
       <c r="A1744" s="2" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5">
       <c r="A1745" s="2" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5">
       <c r="A1746" s="2" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5">
       <c r="A1747" s="2" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5">
       <c r="A1748" s="2" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5">
       <c r="A1749" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1749" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5">
       <c r="A1750" s="2" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5">
       <c r="A1751" s="2" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5">
       <c r="A1752" s="2" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5">
       <c r="A1753" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B1753" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:2">
+        <v>1815</v>
+      </c>
+      <c r="B1753" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1753" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1753" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1753" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5">
       <c r="A1754" s="2" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:2">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5">
       <c r="A1755" s="2" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:2">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5">
       <c r="A1756" s="2" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5">
       <c r="A1757" s="2" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5">
       <c r="A1758" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5">
       <c r="A1759" s="2" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:2">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5">
       <c r="A1760" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
       <c r="A1761" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
       <c r="A1762" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1763" s="3" t="s">
         <v>47</v>
@@ -18364,32 +18619,32 @@
     </row>
     <row r="1764" spans="1:2">
       <c r="A1764" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
       <c r="A1765" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
       <c r="A1766" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
       <c r="A1767" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
       <c r="A1768" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
       <c r="A1769" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1769" s="3" t="s">
         <v>19</v>
@@ -18397,57 +18652,57 @@
     </row>
     <row r="1770" spans="1:2">
       <c r="A1770" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
       <c r="A1771" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
       <c r="A1772" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
       <c r="A1773" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
       <c r="A1774" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
       <c r="A1775" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
       <c r="A1776" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1777" spans="1:5">
       <c r="A1777" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1778" spans="1:5">
       <c r="A1778" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1779" spans="1:5">
       <c r="A1779" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
       <c r="A1780" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1780" s="4" t="s">
         <v>76</v>
@@ -18455,22 +18710,22 @@
     </row>
     <row r="1781" spans="1:5">
       <c r="A1781" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1782" spans="1:5">
       <c r="A1782" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
       <c r="A1783" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1784" spans="1:5">
       <c r="A1784" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1784" s="3" t="s">
         <v>30</v>
@@ -18478,42 +18733,42 @@
     </row>
     <row r="1785" spans="1:5">
       <c r="A1785" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1786" spans="1:5">
       <c r="A1786" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1787" spans="1:5">
       <c r="A1787" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1788" spans="1:5">
       <c r="A1788" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1789" spans="1:5">
       <c r="A1789" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
       <c r="A1790" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1791" spans="1:5">
       <c r="A1791" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
       <c r="A1792" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E1792" s="3" t="s">
         <v>30</v>
@@ -18521,12 +18776,12 @@
     </row>
     <row r="1793" spans="1:5">
       <c r="A1793" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1794" spans="1:5">
       <c r="A1794" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E1794" s="3" t="s">
         <v>24</v>
@@ -18534,12 +18789,12 @@
     </row>
     <row r="1795" spans="1:5">
       <c r="A1795" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
       <c r="A1796" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="E1796" s="3" t="s">
         <v>19</v>
@@ -18547,27 +18802,27 @@
     </row>
     <row r="1797" spans="1:5">
       <c r="A1797" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
       <c r="A1798" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
       <c r="A1799" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1800" spans="1:5">
       <c r="A1800" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
       <c r="A1801" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1801" s="4" t="s">
         <v>51</v>
@@ -18575,18 +18830,18 @@
     </row>
     <row r="1802" spans="1:5">
       <c r="A1802" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1802" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1802" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1803" spans="1:5">
       <c r="A1803" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1803" s="4" t="s">
         <v>80</v>
@@ -18594,7 +18849,7 @@
     </row>
     <row r="1804" spans="1:5">
       <c r="A1804" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D1804" s="4" t="s">
         <v>76</v>
@@ -18602,17 +18857,17 @@
     </row>
     <row r="1805" spans="1:5">
       <c r="A1805" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
       <c r="A1806" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1807" spans="1:5">
       <c r="A1807" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1807" s="3" t="s">
         <v>30</v>
@@ -18620,7 +18875,7 @@
     </row>
     <row r="1808" spans="1:5">
       <c r="A1808" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1808" s="4" t="s">
         <v>115</v>
@@ -18628,22 +18883,22 @@
     </row>
     <row r="1809" spans="1:2">
       <c r="A1809" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
       <c r="A1810" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
       <c r="A1811" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
       <c r="A1812" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1812" s="4" t="s">
         <v>51</v>
@@ -18651,17 +18906,17 @@
     </row>
     <row r="1813" spans="1:2">
       <c r="A1813" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
       <c r="A1814" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
       <c r="A1815" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1815" s="3" t="s">
         <v>24</v>
@@ -18669,17 +18924,17 @@
     </row>
     <row r="1816" spans="1:2">
       <c r="A1816" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
       <c r="A1817" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
       <c r="A1818" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>24</v>
@@ -18687,57 +18942,57 @@
     </row>
     <row r="1819" spans="1:2">
       <c r="A1819" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
       <c r="A1820" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
       <c r="A1822" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
       <c r="A1823" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
       <c r="A1824" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
       <c r="A1825" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
       <c r="A1826" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
       <c r="A1827" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
       <c r="A1828" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>19</v>
@@ -18745,22 +19000,22 @@
     </row>
     <row r="1830" spans="1:2">
       <c r="A1830" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
       <c r="A1831" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
       <c r="A1832" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
       <c r="A1833" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1833" s="3" t="s">
         <v>19</v>
@@ -18768,143 +19023,155 @@
     </row>
     <row r="1834" spans="1:2">
       <c r="A1834" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B1834" s="4" t="s">
-        <v>51</v>
+        <v>1896</v>
+      </c>
+      <c r="B1834" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
+      </c>
+      <c r="B1835" s="4" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
       <c r="A1836" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
       <c r="A1837" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
       <c r="A1838" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
       <c r="A1839" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
       <c r="A1840" s="2" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:2">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5">
       <c r="A1841" s="2" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5">
       <c r="A1842" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1842" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1843" spans="1:2">
+    <row r="1843" spans="1:5">
       <c r="A1843" s="2" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:2">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5">
       <c r="A1844" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1844" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1845" spans="1:2">
+    <row r="1845" spans="1:5">
       <c r="A1845" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1845" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1846" spans="1:2">
+    <row r="1846" spans="1:5">
       <c r="A1846" s="2" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5">
       <c r="A1847" s="2" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5">
       <c r="A1848" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B1848" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1849" spans="1:2">
+    <row r="1849" spans="1:5">
       <c r="A1849" s="2" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:2">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5">
       <c r="A1850" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1850" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="1851" spans="1:2">
+      <c r="C1850" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1850" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1850" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5">
       <c r="A1851" s="2" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5">
       <c r="A1852" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1852" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1853" spans="1:2">
+    <row r="1853" spans="1:5">
       <c r="A1853" s="2" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5">
       <c r="A1854" s="2" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5">
       <c r="A1855" s="2" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:2">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5">
       <c r="A1856" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1857" spans="1:4">
       <c r="A1857" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1857" s="3" t="s">
         <v>39</v>
@@ -18918,12 +19185,12 @@
     </row>
     <row r="1858" spans="1:4">
       <c r="A1858" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1859" spans="1:4">
       <c r="A1859" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D1859" s="3" t="s">
         <v>19</v>
@@ -18931,12 +19198,12 @@
     </row>
     <row r="1860" spans="1:4">
       <c r="A1860" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1861" spans="1:4">
       <c r="A1861" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B1861" s="3" t="s">
         <v>39</v>
@@ -18944,42 +19211,42 @@
     </row>
     <row r="1862" spans="1:4">
       <c r="A1862" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1863" spans="1:4">
       <c r="A1863" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
       <c r="A1864" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1865" spans="1:4">
       <c r="A1865" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1866" spans="1:4">
       <c r="A1866" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1867" spans="1:4">
       <c r="A1867" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1868" spans="1:4">
       <c r="A1868" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1869" spans="1:4">
       <c r="A1869" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1869" s="3" t="s">
         <v>19</v>
@@ -18987,37 +19254,37 @@
     </row>
     <row r="1870" spans="1:4">
       <c r="A1870" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1871" spans="1:4">
       <c r="A1871" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1872" spans="1:4">
       <c r="A1872" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
       <c r="A1873" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
       <c r="A1874" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1875" spans="1:4">
       <c r="A1875" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1876" spans="1:4">
       <c r="A1876" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1876" s="4" t="s">
         <v>51</v>
@@ -19025,12 +19292,12 @@
     </row>
     <row r="1877" spans="1:4">
       <c r="A1877" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1878" spans="1:4">
       <c r="A1878" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1878" s="4" t="s">
         <v>115</v>
@@ -19038,12 +19305,12 @@
     </row>
     <row r="1879" spans="1:4">
       <c r="A1879" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1880" spans="1:4">
       <c r="A1880" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1880" s="3" t="s">
         <v>39</v>
@@ -19054,7 +19321,7 @@
     </row>
     <row r="1881" spans="1:4">
       <c r="A1881" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1881" s="3" t="s">
         <v>19</v>
@@ -19065,17 +19332,17 @@
     </row>
     <row r="1882" spans="1:4">
       <c r="A1882" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
       <c r="A1883" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
       <c r="A1884" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1884" s="3" t="s">
         <v>30</v>
@@ -19083,7 +19350,7 @@
     </row>
     <row r="1885" spans="1:4">
       <c r="A1885" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1885" s="4" t="s">
         <v>51</v>
@@ -19091,27 +19358,27 @@
     </row>
     <row r="1886" spans="1:4">
       <c r="A1886" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1887" spans="1:4">
       <c r="A1887" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1888" spans="1:4">
       <c r="A1888" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
       <c r="A1889" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
       <c r="A1890" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1890" s="3" t="s">
         <v>19</v>
@@ -19119,7 +19386,7 @@
     </row>
     <row r="1891" spans="1:2">
       <c r="A1891" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1891" s="3" t="s">
         <v>47</v>
@@ -19127,25 +19394,25 @@
     </row>
     <row r="1892" spans="1:2">
       <c r="A1892" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
       <c r="A1893" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
       <c r="A1894" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1894" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
       <c r="A1895" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1895" s="4" t="s">
         <v>51</v>
@@ -19153,7 +19420,7 @@
     </row>
     <row r="1896" spans="1:2">
       <c r="A1896" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1896" s="3" t="s">
         <v>20</v>
@@ -19161,17 +19428,17 @@
     </row>
     <row r="1897" spans="1:2">
       <c r="A1897" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
       <c r="A1898" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
       <c r="A1899" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1899" s="3" t="s">
         <v>35</v>
@@ -19179,57 +19446,57 @@
     </row>
     <row r="1900" spans="1:2">
       <c r="A1900" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
       <c r="A1901" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
       <c r="A1902" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
       <c r="A1903" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
       <c r="A1904" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1905" spans="1:5">
       <c r="A1905" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1906" spans="1:5">
       <c r="A1906" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1907" spans="1:5">
       <c r="A1907" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1908" spans="1:5">
       <c r="A1908" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1909" spans="1:5">
       <c r="A1909" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1910" spans="1:5">
       <c r="A1910" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1910" s="3" t="s">
         <v>19</v>
@@ -19243,7 +19510,7 @@
     </row>
     <row r="1911" spans="1:5">
       <c r="A1911" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1911" s="3" t="s">
         <v>22</v>
@@ -19254,22 +19521,22 @@
     </row>
     <row r="1912" spans="1:5">
       <c r="A1912" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1913" spans="1:5">
       <c r="A1913" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1914" spans="1:5">
       <c r="A1914" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1915" spans="1:5">
       <c r="A1915" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D1915" s="4" t="s">
         <v>76</v>
@@ -19277,17 +19544,17 @@
     </row>
     <row r="1916" spans="1:5">
       <c r="A1916" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1917" spans="1:5">
       <c r="A1917" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1918" spans="1:5">
       <c r="A1918" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1918" s="3" t="s">
         <v>30</v>
@@ -19295,60 +19562,60 @@
     </row>
     <row r="1919" spans="1:5">
       <c r="A1919" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1920" spans="1:5">
       <c r="A1920" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1920" s="4" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
       <c r="A1921" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
       <c r="A1922" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
       <c r="A1923" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1924" spans="1:2">
       <c r="A1924" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
       <c r="A1925" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
       <c r="A1926" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
       <c r="A1927" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
       <c r="A1928" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
       <c r="A1929" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1929" s="4" t="s">
         <v>51</v>
@@ -19356,7 +19623,7 @@
     </row>
     <row r="1930" spans="1:2">
       <c r="A1930" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1930" s="3" t="s">
         <v>19</v>
@@ -19364,7 +19631,7 @@
     </row>
     <row r="1931" spans="1:2">
       <c r="A1931" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1931" s="3" t="s">
         <v>30</v>
@@ -19372,7 +19639,7 @@
     </row>
     <row r="1932" spans="1:2">
       <c r="A1932" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1932" s="3" t="s">
         <v>19</v>
@@ -19380,12 +19647,12 @@
     </row>
     <row r="1933" spans="1:2">
       <c r="A1933" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
       <c r="A1934" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1934" s="3" t="s">
         <v>30</v>
@@ -19393,17 +19660,17 @@
     </row>
     <row r="1935" spans="1:2">
       <c r="A1935" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
       <c r="A1936" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1937" spans="1:4">
       <c r="A1937" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1937" s="4" t="s">
         <v>51</v>
@@ -19411,7 +19678,7 @@
     </row>
     <row r="1938" spans="1:4">
       <c r="A1938" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1938" s="3" t="s">
         <v>19</v>
@@ -19419,12 +19686,12 @@
     </row>
     <row r="1939" spans="1:4">
       <c r="A1939" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
       <c r="A1940" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1940" s="3" t="s">
         <v>19</v>
@@ -19432,22 +19699,22 @@
     </row>
     <row r="1941" spans="1:4">
       <c r="A1941" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1942" spans="1:4">
       <c r="A1942" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1943" spans="1:4">
       <c r="A1943" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1944" spans="1:4">
       <c r="A1944" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1944" s="3" t="s">
         <v>24</v>
@@ -19458,7 +19725,7 @@
     </row>
     <row r="1945" spans="1:4">
       <c r="A1945" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1945" s="3" t="s">
         <v>24</v>
@@ -19469,17 +19736,17 @@
     </row>
     <row r="1946" spans="1:4">
       <c r="A1946" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
       <c r="A1947" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
       <c r="A1948" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1948" s="3" t="s">
         <v>24</v>
@@ -19487,14 +19754,226 @@
     </row>
     <row r="1949" spans="1:4">
       <c r="A1949" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1949" s="4" t="s">
-        <v>115</v>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4">
+      <c r="A1950" s="2" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4">
+      <c r="A1951" s="2" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4">
+      <c r="A1952" s="2" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" s="2" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" s="2" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" s="2" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" s="2" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" s="2" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1962" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1963" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" s="2" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" s="2" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" s="2" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" s="2" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" s="2" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1">
+      <c r="A1969" s="2" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:1">
+      <c r="A1970" s="2" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1">
+      <c r="A1971" s="2" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1">
+      <c r="A1972" s="2" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:1">
+      <c r="A1973" s="2" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1">
+      <c r="A1974" s="2" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1">
+      <c r="A1975" s="2" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:1">
+      <c r="A1976" s="2" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1">
+      <c r="A1977" s="2" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1">
+      <c r="A1978" s="2" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:1">
+      <c r="A1979" s="2" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:1">
+      <c r="A1980" s="2" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:1">
+      <c r="A1981" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:1">
+      <c r="A1982" s="2" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:1">
+      <c r="A1983" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:1">
+      <c r="A1984" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1986" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2">
+      <c r="A1988" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2">
+      <c r="A1989" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1989" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1949"/>
+  <autoFilter ref="A1:E1989"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -21440,6 +21919,46 @@
     <hyperlink ref="A1947" r:id="rId1942"/>
     <hyperlink ref="A1948" r:id="rId1943"/>
     <hyperlink ref="A1949" r:id="rId1944"/>
+    <hyperlink ref="A1950" r:id="rId1945"/>
+    <hyperlink ref="A1951" r:id="rId1946"/>
+    <hyperlink ref="A1952" r:id="rId1947"/>
+    <hyperlink ref="A1953" r:id="rId1948"/>
+    <hyperlink ref="A1954" r:id="rId1949"/>
+    <hyperlink ref="A1955" r:id="rId1950"/>
+    <hyperlink ref="A1956" r:id="rId1951"/>
+    <hyperlink ref="A1957" r:id="rId1952"/>
+    <hyperlink ref="A1958" r:id="rId1953"/>
+    <hyperlink ref="A1959" r:id="rId1954"/>
+    <hyperlink ref="A1960" r:id="rId1955"/>
+    <hyperlink ref="A1961" r:id="rId1956"/>
+    <hyperlink ref="A1962" r:id="rId1957"/>
+    <hyperlink ref="A1963" r:id="rId1958"/>
+    <hyperlink ref="A1964" r:id="rId1959"/>
+    <hyperlink ref="A1965" r:id="rId1960"/>
+    <hyperlink ref="A1966" r:id="rId1961"/>
+    <hyperlink ref="A1967" r:id="rId1962"/>
+    <hyperlink ref="A1968" r:id="rId1963"/>
+    <hyperlink ref="A1969" r:id="rId1964"/>
+    <hyperlink ref="A1970" r:id="rId1965"/>
+    <hyperlink ref="A1971" r:id="rId1966"/>
+    <hyperlink ref="A1972" r:id="rId1967"/>
+    <hyperlink ref="A1973" r:id="rId1968"/>
+    <hyperlink ref="A1974" r:id="rId1969"/>
+    <hyperlink ref="A1975" r:id="rId1970"/>
+    <hyperlink ref="A1976" r:id="rId1971"/>
+    <hyperlink ref="A1977" r:id="rId1972"/>
+    <hyperlink ref="A1978" r:id="rId1973"/>
+    <hyperlink ref="A1979" r:id="rId1974"/>
+    <hyperlink ref="A1980" r:id="rId1975"/>
+    <hyperlink ref="A1981" r:id="rId1976"/>
+    <hyperlink ref="A1982" r:id="rId1977"/>
+    <hyperlink ref="A1983" r:id="rId1978"/>
+    <hyperlink ref="A1984" r:id="rId1979"/>
+    <hyperlink ref="A1985" r:id="rId1980"/>
+    <hyperlink ref="A1986" r:id="rId1981"/>
+    <hyperlink ref="A1987" r:id="rId1982"/>
+    <hyperlink ref="A1988" r:id="rId1983"/>
+    <hyperlink ref="A1989" r:id="rId1984"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="2053">
   <si>
     <t>№</t>
   </si>
@@ -6592,13 +6592,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="C3">
-        <v>3586</v>
+        <v>3537</v>
       </c>
       <c r="D3">
-        <v>5427</v>
+        <v>5345</v>
       </c>
       <c r="E3">
         <v>12432</v>
@@ -6609,13 +6609,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8263</v>
+        <v>8296</v>
       </c>
       <c r="C4">
-        <v>4665</v>
+        <v>4705</v>
       </c>
       <c r="D4">
-        <v>3498</v>
+        <v>3538</v>
       </c>
       <c r="E4">
         <v>1787</v>
@@ -6626,13 +6626,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C5">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E5">
         <v>385</v>
@@ -6643,13 +6643,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -6677,13 +6677,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>113</v>
@@ -9398,6 +9398,9 @@
       <c r="A319" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="B319" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C319" s="3" t="s">
         <v>19</v>
       </c>
@@ -10757,6 +10760,12 @@
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
         <v>572</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="520" spans="1:5">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -6598,7 +6598,7 @@
         <v>3537</v>
       </c>
       <c r="D3">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="E3">
         <v>12432</v>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="2053">
   <si>
     <t>№</t>
   </si>
@@ -6592,16 +6592,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1402</v>
+        <v>1358</v>
       </c>
       <c r="C3">
-        <v>3537</v>
+        <v>3454</v>
       </c>
       <c r="D3">
-        <v>5346</v>
+        <v>5229</v>
       </c>
       <c r="E3">
-        <v>12432</v>
+        <v>12434</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6609,13 +6609,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8296</v>
+        <v>8449</v>
       </c>
       <c r="C4">
-        <v>4705</v>
+        <v>4806</v>
       </c>
       <c r="D4">
-        <v>3538</v>
+        <v>3597</v>
       </c>
       <c r="E4">
         <v>1787</v>
@@ -6626,13 +6626,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="C5">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E5">
         <v>385</v>
@@ -6643,13 +6643,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C6">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -6660,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -6677,13 +6677,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>113</v>
@@ -6694,7 +6694,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -10761,11 +10761,14 @@
       <c r="A519" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="B519" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C519" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11598,6 +11601,12 @@
       <c r="A639" s="2" t="s">
         <v>694</v>
       </c>
+      <c r="B639" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="2" t="s">
@@ -12134,6 +12143,9 @@
       <c r="A712" s="2" t="s">
         <v>767</v>
       </c>
+      <c r="B712" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="2" t="s">
@@ -13841,6 +13853,15 @@
     <row r="948" spans="1:5">
       <c r="A948" s="2" t="s">
         <v>1007</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C948" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="949" spans="1:5">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2053">
   <si>
     <t>№</t>
   </si>
@@ -6592,16 +6592,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1358</v>
+        <v>1308</v>
       </c>
       <c r="C3">
-        <v>3454</v>
+        <v>3360</v>
       </c>
       <c r="D3">
-        <v>5229</v>
+        <v>4989</v>
       </c>
       <c r="E3">
-        <v>12434</v>
+        <v>12435</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6609,13 +6609,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8449</v>
+        <v>8589</v>
       </c>
       <c r="C4">
-        <v>4806</v>
+        <v>4905</v>
       </c>
       <c r="D4">
-        <v>3597</v>
+        <v>3737</v>
       </c>
       <c r="E4">
         <v>1787</v>
@@ -6626,13 +6626,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="C5">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D5">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E5">
         <v>385</v>
@@ -6643,13 +6643,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C6">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -6660,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -6677,13 +6677,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>113</v>
@@ -6694,7 +6694,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6897,6 +6897,15 @@
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
       </c>
@@ -8872,8 +8881,11 @@
       <c r="A245" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>51</v>
+      <c r="B245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -14204,6 +14216,15 @@
       <c r="A991" s="2" t="s">
         <v>1050</v>
       </c>
+      <c r="B991" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C991" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="992" spans="1:5">
       <c r="A992" s="2" t="s">
@@ -14777,7 +14798,13 @@
         <v>1151</v>
       </c>
       <c r="B1091" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="C1091" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E1091" s="4" t="s">
         <v>501</v>

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="2053">
   <si>
     <t>№</t>
   </si>
@@ -6592,16 +6592,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1308</v>
+        <v>1268</v>
       </c>
       <c r="C3">
-        <v>3360</v>
+        <v>3329</v>
       </c>
       <c r="D3">
         <v>4989</v>
       </c>
       <c r="E3">
-        <v>12435</v>
+        <v>12436</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8589</v>
+        <v>8725</v>
       </c>
       <c r="C4">
-        <v>4905</v>
+        <v>4946</v>
       </c>
       <c r="D4">
         <v>3737</v>
@@ -6626,10 +6626,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="C5">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D5">
         <v>450</v>
@@ -6643,10 +6643,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>166</v>
@@ -6660,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -6677,10 +6677,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>189</v>
@@ -6694,7 +6694,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -7160,8 +7160,8 @@
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>44</v>
+      <c r="B43" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7580,8 +7580,8 @@
       <c r="A85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>115</v>
+      <c r="B85" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -8884,6 +8884,9 @@
       <c r="B245" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C245" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D245" s="3" t="s">
         <v>19</v>
       </c>
@@ -11693,6 +11696,9 @@
       <c r="A649" s="2" t="s">
         <v>704</v>
       </c>
+      <c r="B649" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2" t="s">
@@ -13089,7 +13095,7 @@
         <v>901</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>501</v>
+        <v>44</v>
       </c>
     </row>
     <row r="845" spans="1:4">

--- a/groups/23-24-Univers/acmp_results.xlsx
+++ b/groups/23-24-Univers/acmp_results.xlsx
@@ -6601,7 +6601,7 @@
         <v>4989</v>
       </c>
       <c r="E3">
-        <v>12436</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="4" spans="1:5">
